--- a/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$374</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$378</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="889">
   <si>
     <t>Req ID</t>
   </si>
@@ -719,9 +719,6 @@
     <t>MS-VIEWSS_R257</t>
   </si>
   <si>
-    <t>MS-VIEWSS_R431</t>
-  </si>
-  <si>
     <t>MS-VIEWSS_R430</t>
   </si>
   <si>
@@ -1814,31 +1811,16 @@
     <t>[In Elements] The following table[Element, Description] summarizes the set of common XML schema element definitions defined in this specification. XML schema element definitions that are specific to a particular operation are described with the operation.</t>
   </si>
   <si>
-    <t>[In Elements] The element "aggregations" specifies the fields (2) by which the list view is aggregated.</t>
-  </si>
-  <si>
     <t>[In Elements] The element "formats" specifies the row and column formatting of a list view.</t>
   </si>
   <si>
-    <t>[In Elements] The element "listName" specifies the GUID of a list (1).</t>
-  </si>
-  <si>
     <t>[In Elements] The element "query" specifies the query that a list view uses.</t>
   </si>
   <si>
-    <t>[In Elements] The element "rowLimit" specifies whether a list (1) supports displaying items page by page, and the number of items that a list view displays per page.</t>
-  </si>
-  <si>
-    <t>[In Elements] The element "viewFields" specifies the fields (2) included in a list view.</t>
-  </si>
-  <si>
     <t>[In Elements] The element "viewName" specifies the GUID of a list view.</t>
   </si>
   <si>
     <t>[In Elements] The element "viewProperties" specifies the attributes of a list view.</t>
-  </si>
-  <si>
-    <t>[In aggregations] The aggregations element specifies the fields (2) used to aggregate a list view.</t>
   </si>
   <si>
     <t>[In aggregations] The definition of the aggregations element is as follows.
@@ -1870,17 +1852,8 @@
     <t>[In formats] Formats: An XML fragment that conforms to the schema of the ViewFormatDefinitions complex type, as specified in [MS-WSSCAML] section 2.3.2.21 (ViewFormatDefinitions Type).</t>
   </si>
   <si>
-    <t>[In listName] The listName element specifies a list (1) on the protocol server.</t>
-  </si>
-  <si>
-    <t>[In listName] It [listName] MUST be the display name or the GUID of a list (1).</t>
-  </si>
-  <si>
     <t>[In listName] The definition of the listName element is as follows.
 &lt;s:element name="listName" type="s:string" /&gt;</t>
-  </si>
-  <si>
-    <t>[In listName] If the value of listName element is not the name or GUID of a list (1), the operation MUST return a SOAP fault message.</t>
   </si>
   <si>
     <t>[In query] The query element includes the information that affects how a list view displays the data.</t>
@@ -1899,9 +1872,6 @@
     <t>[In query] Query: An XML fragment that conforms to the schema of the CamlQueryRoot complex type, as specified in [MS-WSSCAML] section 2.2.2.1 (CamlQueryRoot Type).</t>
   </si>
   <si>
-    <t>[In rowLimit] The rowLimit element specifies whether a list (1) supports displaying list items page by page, and the number of list items that a list view displays per page.</t>
-  </si>
-  <si>
     <t>[In rowLimit] The definition of the rowLimit element is as follows.
 &lt;s:element name="rowLimit"&gt;
   &lt;s:complexType&gt;
@@ -1913,9 +1883,6 @@
   </si>
   <si>
     <t>[In rowLimit] RowLimit: An XML fragment that conforms to the schema of the RowLimitDefinition complex type, as specified in [MS-WSSCAML] section 2.3.2.14 (RowLimitDefinition Type).</t>
-  </si>
-  <si>
-    <t>[In viewFields] The viewFields element specifies the fields (2) included in a list view.</t>
   </si>
   <si>
     <t>[In viewFields] The definition of the viewFields element is as follows.
@@ -1950,15 +1917,6 @@
     <t>[In viewName] If the value of viewName element is not the GUID of a list view, the operation MUST return a SOAP fault message.</t>
   </si>
   <si>
-    <t>[In viewName] When viewName element is not present in the message or the value of viewName element is empty, the protocol server MUST refer to the default list view of the list (1).</t>
-  </si>
-  <si>
-    <t>[In viewName] When viewName element is not present in the message, the protocol server MUST refer to the default list view of the list (1).</t>
-  </si>
-  <si>
-    <t>[In viewName] When the value of viewName element is empty, the protocol server MUST refer to the default list view of the list (1).</t>
-  </si>
-  <si>
     <t>[In viewName] If the default list view does not exist, the protocol server MUST return a SOAP fault message.</t>
   </si>
   <si>
@@ -1991,35 +1949,6 @@
   </si>
   <si>
     <t>[In BriefViewDefinition] The BriefViewDefinition complex type specifies summary information about a list view.</t>
-  </si>
-  <si>
-    <t>[In BriefViewDefinition] The definition of the BriefViewDefinition element is as follows.
-&lt;s:complexType name="BriefViewDefinition"&gt;
-  &lt;s:sequence&gt;
-    &lt;s:element name="Query" type="core:CamlQueryRoot" minOccurs="1" maxOccurs="1" /&gt;
-    &lt;s:element name="ViewFields" minOccurs="1" maxOccurs="1"&gt;
-      &lt;s:complexType&gt;
-        &lt;s:sequence&gt;
-          &lt;s:element name="FieldRef" type="core:FieldRefDefinitionView" minOccurs="0" maxOccurs="unbounded" /&gt;
-        &lt;/s:sequence&gt;
-       &lt;/s:complexType&gt;
-    &lt;/s:element&gt;
-    &lt;s:element name="ViewData" minOccurs="0" maxOccurs="1"&gt;
-      &lt;s:complexType&gt;
-        &lt;s:sequence&gt;
-          &lt;s:element name="FieldRef" type="core:FieldRefDefinitionViewData" minOccurs="3" maxOccurs="5" /&gt;
-        &lt;/s:sequence&gt;
-      &lt;/s:complexType&gt;
-    &lt;/s:element&gt;
-    &lt;s:element name="CalendarViewStyles" type="core:CalendarViewStylesDefinition" minOccurs="0" maxOccurs="1" /&gt;
-    &lt;s:element name="RowLimit" type="core:RowLimitDefinition" minOccurs="0" maxOccurs="1" /&gt;
-    &lt;s:element name="Formats" type="core:ViewFormatDefinitions" minOccurs="0" maxOccurs="1"  /&gt;
-    &lt;s:element name="Aggregations" type="core:AggregationsDefinition" minOccurs="0" maxOccurs="1" /&gt;
-    &lt;s:element name="ViewStyle" type="core:ViewStyleReference" minOccurs="0" maxOccurs="1" /&gt;
-    &lt;s:element name="OpenApplicationExtension" type="s:string" minOccurs="0" maxOccurs="1"  /&gt;
-  &lt;/s:sequence&gt;
-  &lt;s:attributeGroup ref="tns:ViewAttributeGroup"/&gt;
-&lt;/s:complexType&gt;</t>
   </si>
   <si>
     <t>[In BriefViewDefinition] Query: For a definition, see [MS-WSSCAML] section 2.3.2.17.</t>
@@ -2129,15 +2058,9 @@
     <t>[In Protocol Details] Except where specified, protocol clients interpret HTTP status codes returned by the protocol server as specified in [RFC2616] section 10.</t>
   </si>
   <si>
-    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4 or a detail element as specified in [SOAP1.2/1] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.2.</t>
-  </si>
-  <si>
     <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including a detail element as specified in [SOAP1.1] section 4.4, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.2.</t>
   </si>
   <si>
-    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including a detail element as specified in [SOAP1.2/1] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.2.</t>
-  </si>
-  <si>
     <t>[In Protocol Details] Except where specified, these SOAP faults are not significant for interoperability</t>
   </si>
   <si>
@@ -2153,24 +2076,15 @@
     <t>[In Abstract Data Model] This document does not mandate that implementations adhere to this model as long as their external behavior is consistent with that described in this document.</t>
   </si>
   <si>
-    <t>[In Abstract Data Model] This protocol enables a protocol client to create a list view, retrieve a specific list view or the collection of list views from a list (1), update a list view, and delete a list view.</t>
-  </si>
-  <si>
     <t>[In Message Processing Events and Sequencing Rules] The following table summarizes the WSDL operations specified in this specification: AddView, DeleteView, GetView, GetViewCollection, GetViewHtml, UpdateView, UpdateViewHtml, and UpdateViewHtml2.</t>
   </si>
   <si>
-    <t>[In Message Processing Events and Sequencing Rules] The operation AddView adds a list view for the specified list (1).</t>
-  </si>
-  <si>
     <t>[In Message Processing Events and Sequencing Rules] The operation DeleteView deletes a list view.</t>
   </si>
   <si>
     <t>[In Message Processing Events and Sequencing Rules] The operation GetView retrieves information about a list view, without the display properties.</t>
   </si>
   <si>
-    <t>[In Message Processing Events and Sequencing Rules] The operation GetViewCollection retrieves a collection of list views for a specified list (1).</t>
-  </si>
-  <si>
     <t>[In Message Processing Events and Sequencing Rules] The operation GetViewHtml retrieves information about a list view, including the display properties in CAML and HTML.</t>
   </si>
   <si>
@@ -2184,9 +2098,6 @@
   </si>
   <si>
     <t>[In Message Processing Events and Sequencing Rules] The operation UpdateViewHtml2 updates a list view, including the display properties in CAML and HTML.</t>
-  </si>
-  <si>
-    <t>[In AddView] The AddView operation is used to create a list view for the specified list (1).</t>
   </si>
   <si>
     <t>[In AddView] The definition of the AddView operation is as follows.
@@ -2203,10 +2114,6 @@
   </si>
   <si>
     <t>[AddViewSoapIn:] The request WSDL message for an AddView WSDL operation (section 3.1.4.1).</t>
-  </si>
-  <si>
-    <t>[In AddViewSoapIn] The SOAP action value of the message is specified as follows.
-http://schemas.microsoft.com/sharepoint/soap/AddView</t>
   </si>
   <si>
     <t>[In AddViewSoapIn] The SOAP body contains an AddView element (section 3.1.4.1.2.1).</t>
@@ -2273,9 +2180,6 @@
     <t>[In AddView] viewFields: For a definition, see section 2.2.3.6.</t>
   </si>
   <si>
-    <t>[In AddView] When the value of the viewFields element is empty, the protocol server MUST create the list view with no fields (2) included.</t>
-  </si>
-  <si>
     <t>[In AddView] This element[viewFields] MUST be present.</t>
   </si>
   <si>
@@ -2307,9 +2211,6 @@
   </si>
   <si>
     <t>[In AddView] type: For a definition, see section 3.1.4.1.2.2.</t>
-  </si>
-  <si>
-    <t>[In AddView] makeViewDefault: Specifies whether to make the list view the default list view for the specified list (1).</t>
   </si>
   <si>
     <t>[In AddView] The protocol server MUST create the list view as the default list view if "true" [the value of makeViewDefault element] is specified.</t>
@@ -2367,13 +2268,7 @@
     <t>[In AddViewResponse] It[The protocol server] MUST create the list view, and include the resulting View element when the operation succeeds.</t>
   </si>
   <si>
-    <t>[In AddViewResponse] The protocol server MAY&lt;1&gt; append "&amp;gt;" after the View element.</t>
-  </si>
-  <si>
     <t>[In AddViewResponse] The type of the View element[in AddViewResult] is BriefViewDefinition, which is specified in section 2.2.4.1.</t>
-  </si>
-  <si>
-    <t>[In DeleteView] The DeleteView operation is used to delete the specified list view of the specified list (1).</t>
   </si>
   <si>
     <t>[In DeleteView] The definition of the DeleteView operation is as follows.
@@ -2438,9 +2333,6 @@
 &lt;s:element name="DeleteViewResponse"&gt;
   &lt;s:complexType/&gt;
 &lt;/s:element&gt;</t>
-  </si>
-  <si>
-    <t>[In GetView] The GetView operation is used to obtain information about a specified list view of the specified list (1), without the display properties.</t>
   </si>
   <si>
     <t>[In GetView] The definition of the GetView operation is as follows.
@@ -2521,9 +2413,6 @@
   </si>
   <si>
     <t>[In GetViewResponse] The type of the View element is BriefViewDefinition, which is specified in section 2.2.4.1.</t>
-  </si>
-  <si>
-    <t>[In GetViewCollection] The GetViewCollection operation is used to retrieve the collection of list views of a specified list (1).</t>
   </si>
   <si>
     <t>[In GetViewCollection] The definition of the GetViewCollection operation is as follows.
@@ -2610,9 +2499,6 @@
   </si>
   <si>
     <t>[In GetViewCollectionResponse] The attribute group ViewAttributeGroup is specified in section 2.2.8.1, with the following exception: The Url attribute MUST be the server-relative URL of the list view.</t>
-  </si>
-  <si>
-    <t>[In GetViewHtml] The GetViewHtml operation is used to obtain details of a specified list view of the specified list (1), including display properties in CAML and HTML.</t>
   </si>
   <si>
     <t>[In GetViewHtml] The definition of the GetViewHtml operation is as follows.
@@ -2839,9 +2725,6 @@
   </si>
   <si>
     <t>[In UpdateViewResponse] The type of the View element[in UpdateViewResult] is BriefViewDefinition, which is specified in section 2.2.4.1.</t>
-  </si>
-  <si>
-    <t>[In UpdateViewHtml] The UpdateViewHtml operation is used to update a list view for a specified list (1), including display properties in CAML and HTML.</t>
   </si>
   <si>
     <t>[In UpdateViewHtml] The definition of the UpdateViewHtml element is as follows.
@@ -3047,9 +2930,6 @@
   </si>
   <si>
     <t>[In UpdateViewHtmlResponse] The type of the View element is ViewDefinition, which is specified in [MS-WSSCAML] section 2.3.2.17 (ViewDefinition Type).</t>
-  </si>
-  <si>
-    <t>[In UpdateViewHtml2] The UpdateViewHtml2 operation&lt;3&gt; is used to update details of a specified list view of the specified list (1), including display properties in CAML and HTML.</t>
   </si>
   <si>
     <t>[In UpdateViewHtml2] The definition of the UpdateViewHtml2 operation is as follows.
@@ -3272,9 +3152,6 @@
     <t>[In UpdateViewHtml2] The protocol server can look up the application that is supposed to use that extension, and it can use that application to edit this view.</t>
   </si>
   <si>
-    <t>[In toolbar] The toolbar element specifies the rendering of the toolbar of a list (1).</t>
-  </si>
-  <si>
     <t>[In toolbar] The definition of the toolbar element is as follows.
 &lt;s:element name="toolbar"&gt;
   &lt;s:complexType&gt;
@@ -3435,12 +3312,6 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does additionally support SOAP over HTTPS for securing communication with protocol clients.(Windows SharePoint Services 2.0 and above products follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;1&gt; Section 3.1.4.1.2.3:  SharePoint Foundation 2013 will not append "&amp;gt;" after the View element.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;2&gt; Section 3.1.4.3.2.2: In SharePoint Foundation 2010 and SharePoint Foundation 2013, when this method is called after UpdateViewHtml2 (section 3.1.4.8) and the type of the view is HTML, the value of OpenApplicationExtension is returned as the value of the View element.</t>
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does not support this method[UpdateViewHtml2]. (Windows SharePoint Services 2.0 products follow this behavior.)</t>
@@ -3925,6 +3796,170 @@
   </si>
   <si>
     <t>Open Specification Date:</t>
+  </si>
+  <si>
+    <t>[In Elements] The element "aggregations" specifies the fields by which the list view is aggregated.</t>
+  </si>
+  <si>
+    <t>[In Elements] The element "viewFields" specifies the fields included in a list view.</t>
+  </si>
+  <si>
+    <t>[In aggregations] The aggregations element specifies the fields used to aggregate a list view.</t>
+  </si>
+  <si>
+    <t>[In AddView] When the value of the viewFields element is empty, the protocol server MUST create the list view with no fields included.</t>
+  </si>
+  <si>
+    <t>[In viewFields] The viewFields element specifies the fields included in a list view.</t>
+  </si>
+  <si>
+    <t>[In Elements] The element "listName" specifies the GUID of a list.</t>
+  </si>
+  <si>
+    <t>[In Elements] The element "rowLimit" specifies whether a list supports displaying items page by page, and the number of items that a list view displays per page.</t>
+  </si>
+  <si>
+    <t>[In listName] The listName element specifies a list on the protocol server.</t>
+  </si>
+  <si>
+    <t>[In listName] It [listName] MUST be the display name or the GUID of a list.</t>
+  </si>
+  <si>
+    <t>[In listName] If the value of listName element is not the name or GUID of a list, the operation MUST return a SOAP fault message.</t>
+  </si>
+  <si>
+    <t>[In viewName] When viewName element is not present in the message or the value of viewName element is empty, the protocol server MUST refer to the default list view of the list.</t>
+  </si>
+  <si>
+    <t>[In Abstract Data Model] This protocol enables a protocol client to create a list view, retrieve a specific list view or the collection of list views from a list, update a list view, and delete a list view.</t>
+  </si>
+  <si>
+    <t>[In viewName] When the value of viewName element is empty, the protocol server MUST refer to the default list view of the list.</t>
+  </si>
+  <si>
+    <t>[In rowLimit] The rowLimit element specifies whether a list supports displaying list items page by page, and the number of list items that a list view displays per page.</t>
+  </si>
+  <si>
+    <t>[In viewName] When viewName element is not present in the message, the protocol server MUST refer to the default list view of the list.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] The operation AddView adds a list view for the specified list.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] The operation GetViewCollection retrieves a collection of list views for a specified list.</t>
+  </si>
+  <si>
+    <t>[In AddView] The AddView operation is used to create a list view for the specified list.</t>
+  </si>
+  <si>
+    <t>[In AddView] makeViewDefault: Specifies whether to make the list view the default list view for the specified list.</t>
+  </si>
+  <si>
+    <t>[In DeleteView] The DeleteView operation is used to delete the specified list view of the specified list.</t>
+  </si>
+  <si>
+    <t>[In GetView] The GetView operation is used to obtain information about a specified list view of the specified list, without the display properties.</t>
+  </si>
+  <si>
+    <t>[In GetViewCollection] The GetViewCollection operation is used to retrieve the collection of list views of a specified list.</t>
+  </si>
+  <si>
+    <t>[In GetViewHtml] The GetViewHtml operation is used to obtain details of a specified list view of the specified list, including display properties in CAML and HTML.</t>
+  </si>
+  <si>
+    <t>[In UpdateViewHtml] The UpdateViewHtml operation is used to update a list view for a specified list, including display properties in CAML and HTML.</t>
+  </si>
+  <si>
+    <t>[In toolbar] The toolbar element specifies the rendering of the toolbar of a list.</t>
+  </si>
+  <si>
+    <t>[In BriefViewDefinition] The definition of the BriefViewDefinition element is as follows.
+&lt;s:complexType name="BriefViewDefinition" mixed="true"&gt;
+  &lt;s:sequence&gt;
+    &lt;s:element name="Query" type="core:CamlQueryRoot" minOccurs="1" maxOccurs="1" /&gt;
+    &lt;s:element name="ViewFields" minOccurs="1" maxOccurs="1"&gt;
+      &lt;s:complexType&gt;
+        &lt;s:sequence&gt;
+          &lt;s:element name="FieldRef" type="core:FieldRefDefinitionView" minOccurs="0" maxOccurs="unbounded" /&gt;
+        &lt;/s:sequence&gt;
+       &lt;/s:complexType&gt;
+    &lt;/s:element&gt;
+    &lt;s:element name="ViewData" minOccurs="0" maxOccurs="1"&gt;
+      &lt;s:complexType&gt;
+        &lt;s:sequence&gt;
+          &lt;s:element name="FieldRef" type="core:FieldRefDefinitionViewData" minOccurs="3" maxOccurs="5" /&gt;
+        &lt;/s:sequence&gt;
+      &lt;/s:complexType&gt;
+    &lt;/s:element&gt;
+    &lt;s:element name="CalendarViewStyles" type="core:CalendarViewStylesDefinition" minOccurs="0" maxOccurs="1" /&gt;
+    &lt;s:element name="RowLimit" type="core:RowLimitDefinition" minOccurs="0" maxOccurs="1" /&gt;
+    &lt;s:element name="Formats" type="core:ViewFormatDefinitions" minOccurs="0" maxOccurs="1"  /&gt;
+    &lt;s:element name="Aggregations" type="core:AggregationsDefinition" minOccurs="0" maxOccurs="1" /&gt;
+    &lt;s:element name="ViewStyle" type="core:ViewStyleReference" minOccurs="0" maxOccurs="1" /&gt;
+    &lt;s:element name="OpenApplicationExtension" type="s:string" minOccurs="0" maxOccurs="1"  /&gt;
+  &lt;/s:sequence&gt;
+  &lt;s:attributeGroup ref="tns:ViewAttributeGroup"/&gt;
+&lt;/s:complexType&gt;</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R87001</t>
+  </si>
+  <si>
+    <t>[In UpdateViewAttributeGroup] The DefaultView attribute SHOULD be ignored by the protocol server if it is set to false.</t>
+  </si>
+  <si>
+    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4 or a Detail element &lt;1&gt; as specified in [SOAP1.2/1] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.2.</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R8902:i</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R8902001</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R265001</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R265002</t>
+  </si>
+  <si>
+    <t>[In AddView] viewName: If [the value of viewName element is empty or] the viewName element is not present, the protocol server MUST return a SOAP fault message.</t>
+  </si>
+  <si>
+    <t>[In AddView] viewName: If the value of viewName element is empty [or the viewName element is not present], the protocol server MUST return a SOAP fault message.</t>
+  </si>
+  <si>
+    <t>[In AddViewResponse] The protocol server MAY&lt;2&gt; append "&amp;gt;" after the View element.</t>
+  </si>
+  <si>
+    <t>[In UpdateViewHtml2] The UpdateViewHtml2 operation &lt;4&gt; is used to update details of a specified list view of the specified list, including display properties in CAML and HTML.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;3&gt; Section 3.1.4.3.2.2: In SharePoint Foundation 2010 and SharePoint Foundation 2013, when this method is called after UpdateViewHtml2 (section 3.1.4.8) and the type of the view is HTML, the value of OpenApplicationExtension is returned as the value of the View element.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not append "&amp;gt;" after the View element. (SharePoint Foundation 2013 and above follow this behavior. )</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does append "&amp;gt;" after the View element. &lt;2&gt; Section 3.1.4.1.2.3:  SharePoint Foundation 2010  appends "&amp;gt;" after the View element. (SharePoint Foundation 2010 follows this behavoir.)</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R8005001</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R8005:I; MS-VIEWSS_R148:i</t>
+  </si>
+  <si>
+    <t>Verified by requirements: MS-VIEWSS_R8014, MS-VIEWSS_R8005001.</t>
+  </si>
+  <si>
+    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including a Detail &lt;1&gt; element as specified in [SOAP1.2/1] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.2.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does use a detail element instead of the Detail element in SOAP 1.2. &lt;1&gt; Section 3:  Microsoft products use a detail element instead of the Detail element in SOAP 1.2.</t>
+  </si>
+  <si>
+    <t>Verified by requirements: MS-VIEWSS_R8902001.</t>
   </si>
 </sst>
 </file>
@@ -4196,21 +4231,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4235,11 +4255,86 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4579,36 +4674,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
@@ -4781,34 +4846,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I374" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I374"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" connectionId="1">
+  <autoFilter ref="A19:I378"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="28">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="27">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="26">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="25">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4817,12 +4882,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="14"/>
+    <tableColumn id="2" name="Test" dataDxfId="13"/>
+    <tableColumn id="3" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4871,7 +4936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4906,7 +4971,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5116,13 +5181,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L376"/>
+  <dimension ref="A1:L380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I348" sqref="I348"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -5137,7 +5204,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -5147,7 +5214,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5164,135 +5231,135 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="F3" s="12">
-        <v>41481</v>
+        <v>42627</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5305,12 +5372,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5323,12 +5390,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5341,12 +5408,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5359,60 +5426,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -5451,10 +5518,10 @@
         <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -5476,10 +5543,10 @@
         <v>44</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -5495,7 +5562,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1" ht="30">
@@ -5503,10 +5570,10 @@
         <v>45</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -5528,10 +5595,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -5553,10 +5620,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -5578,10 +5645,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -5603,10 +5670,10 @@
         <v>49</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -5628,10 +5695,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -5653,10 +5720,10 @@
         <v>51</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -5678,10 +5745,10 @@
         <v>52</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -5703,10 +5770,10 @@
         <v>53</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -5728,10 +5795,10 @@
         <v>54</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -5753,10 +5820,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -5778,10 +5845,10 @@
         <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -5803,10 +5870,10 @@
         <v>57</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30" t="s">
@@ -5828,10 +5895,10 @@
         <v>58</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="30" t="s">
@@ -5853,10 +5920,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30" t="s">
@@ -5878,10 +5945,10 @@
         <v>60</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>523</v>
+        <v>843</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -5903,10 +5970,10 @@
         <v>61</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -5928,10 +5995,10 @@
         <v>62</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>525</v>
+        <v>848</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -5953,10 +6020,10 @@
         <v>63</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -5978,10 +6045,10 @@
         <v>64</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>527</v>
+        <v>849</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -6003,10 +6070,10 @@
         <v>65</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>528</v>
+        <v>844</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -6028,10 +6095,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -6053,10 +6120,10 @@
         <v>67</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
@@ -6073,15 +6140,15 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9">
       <c r="A45" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>531</v>
+        <v>845</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
@@ -6103,10 +6170,10 @@
         <v>69</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -6128,10 +6195,10 @@
         <v>70</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -6153,10 +6220,10 @@
         <v>71</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -6178,10 +6245,10 @@
         <v>72</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -6203,10 +6270,10 @@
         <v>73</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
@@ -6228,10 +6295,10 @@
         <v>74</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>537</v>
+        <v>850</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -6253,10 +6320,10 @@
         <v>75</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>538</v>
+        <v>851</v>
       </c>
       <c r="D52" s="30"/>
       <c r="E52" s="30" t="s">
@@ -6278,10 +6345,10 @@
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30" t="s">
@@ -6303,10 +6370,10 @@
         <v>77</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>540</v>
+        <v>852</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
@@ -6328,10 +6395,10 @@
         <v>78</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
@@ -6353,10 +6420,10 @@
         <v>79</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
@@ -6378,10 +6445,10 @@
         <v>80</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -6403,10 +6470,10 @@
         <v>81</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>544</v>
+        <v>856</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30" t="s">
@@ -6428,10 +6495,10 @@
         <v>82</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30" t="s">
@@ -6453,10 +6520,10 @@
         <v>83</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -6478,10 +6545,10 @@
         <v>84</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>547</v>
+        <v>847</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -6503,10 +6570,10 @@
         <v>85</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -6528,10 +6595,10 @@
         <v>86</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -6553,10 +6620,10 @@
         <v>87</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -6578,10 +6645,10 @@
         <v>88</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -6603,10 +6670,10 @@
         <v>89</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
@@ -6628,10 +6695,10 @@
         <v>90</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
@@ -6653,10 +6720,10 @@
         <v>91</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>554</v>
+        <v>853</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -6678,13 +6745,13 @@
         <v>92</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>555</v>
+        <v>857</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>19</v>
@@ -6705,13 +6772,13 @@
         <v>93</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>556</v>
+        <v>855</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>19</v>
@@ -6732,10 +6799,10 @@
         <v>94</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -6757,10 +6824,10 @@
         <v>95</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -6782,10 +6849,10 @@
         <v>96</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -6807,10 +6874,10 @@
         <v>97</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -6832,10 +6899,10 @@
         <v>98</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -6857,10 +6924,10 @@
         <v>99</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30" t="s">
@@ -6882,10 +6949,10 @@
         <v>100</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -6907,10 +6974,10 @@
         <v>101</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -6935,7 +7002,7 @@
         <v>31</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -6960,7 +7027,7 @@
         <v>31</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>566</v>
+        <v>868</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -6985,7 +7052,7 @@
         <v>31</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="30" t="s">
@@ -7010,7 +7077,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -7035,7 +7102,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -7060,7 +7127,7 @@
         <v>31</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -7085,7 +7152,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -7110,7 +7177,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -7135,7 +7202,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -7160,7 +7227,7 @@
         <v>31</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -7185,7 +7252,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -7210,7 +7277,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -7232,10 +7299,10 @@
         <v>114</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -7257,10 +7324,10 @@
         <v>115</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -7282,10 +7349,10 @@
         <v>116</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -7307,10 +7374,10 @@
         <v>117</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -7332,10 +7399,10 @@
         <v>118</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -7357,10 +7424,10 @@
         <v>119</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -7382,10 +7449,10 @@
         <v>120</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -7407,10 +7474,10 @@
         <v>121</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -7432,10 +7499,10 @@
         <v>122</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -7457,10 +7524,10 @@
         <v>123</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -7482,10 +7549,10 @@
         <v>124</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -7507,10 +7574,10 @@
         <v>125</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="30" t="s">
@@ -7532,10 +7599,10 @@
         <v>126</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30" t="s">
@@ -7557,10 +7624,10 @@
         <v>127</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -7582,10 +7649,10 @@
         <v>128</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -7607,10 +7674,10 @@
         <v>129</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -7627,15 +7694,15 @@
       </c>
       <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="30" t="s">
-        <v>130</v>
+        <v>869</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>593</v>
+        <v>870</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -7645,22 +7712,22 @@
         <v>7</v>
       </c>
       <c r="G107" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9">
       <c r="A108" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D108" s="30"/>
       <c r="E108" s="30" t="s">
@@ -7677,22 +7744,22 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G109" s="30" t="s">
         <v>16</v>
@@ -7702,69 +7769,67 @@
       </c>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="45">
       <c r="A110" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G110" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H110" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" ht="60">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G111" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H111" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I111" s="32"/>
     </row>
     <row r="112" spans="1:9" ht="60">
       <c r="A112" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>862</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
         <v>19</v>
       </c>
@@ -7781,16 +7846,16 @@
     </row>
     <row r="113" spans="1:9" ht="60">
       <c r="A113" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="E113" s="30" t="s">
         <v>19</v>
@@ -7806,17 +7871,19 @@
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" ht="30">
+    <row r="114" spans="1:9" ht="60">
       <c r="A114" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="D114" s="30"/>
+        <v>886</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>828</v>
+      </c>
       <c r="E114" s="30" t="s">
         <v>19</v>
       </c>
@@ -7824,29 +7891,31 @@
         <v>6</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H114" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I114" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I114" s="32" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="30">
       <c r="A115" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G115" s="30" t="s">
         <v>16</v>
@@ -7856,22 +7925,22 @@
       </c>
       <c r="I115" s="32"/>
     </row>
-    <row r="116" spans="1:9" ht="45">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G116" s="30" t="s">
         <v>16</v>
@@ -7881,22 +7950,22 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G117" s="30" t="s">
         <v>16</v>
@@ -7906,15 +7975,15 @@
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9" ht="45">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -7933,20 +8002,20 @@
     </row>
     <row r="119" spans="1:9" ht="45">
       <c r="A119" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G119" s="30" t="s">
         <v>16</v>
@@ -7958,20 +8027,20 @@
     </row>
     <row r="120" spans="1:9" ht="45">
       <c r="A120" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>606</v>
+        <v>854</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G120" s="30" t="s">
         <v>16</v>
@@ -7981,15 +8050,15 @@
       </c>
       <c r="I120" s="32"/>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -8008,13 +8077,13 @@
     </row>
     <row r="122" spans="1:9" ht="30">
       <c r="A122" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>608</v>
+        <v>858</v>
       </c>
       <c r="D122" s="30"/>
       <c r="E122" s="30" t="s">
@@ -8033,13 +8102,13 @@
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="D123" s="30"/>
       <c r="E123" s="30" t="s">
@@ -8058,13 +8127,13 @@
     </row>
     <row r="124" spans="1:9" ht="30">
       <c r="A124" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="30" t="s">
@@ -8083,13 +8152,13 @@
     </row>
     <row r="125" spans="1:9" ht="30">
       <c r="A125" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>611</v>
+        <v>859</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="30" t="s">
@@ -8108,13 +8177,13 @@
     </row>
     <row r="126" spans="1:9" ht="30">
       <c r="A126" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="30" t="s">
@@ -8133,13 +8202,13 @@
     </row>
     <row r="127" spans="1:9" ht="30">
       <c r="A127" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="30" t="s">
@@ -8158,13 +8227,13 @@
     </row>
     <row r="128" spans="1:9" ht="30">
       <c r="A128" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="D128" s="30"/>
       <c r="E128" s="30" t="s">
@@ -8183,13 +8252,13 @@
     </row>
     <row r="129" spans="1:9" ht="30">
       <c r="A129" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -8206,15 +8275,15 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>32</v>
+        <v>417</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -8231,15 +8300,15 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9" ht="75">
+    <row r="131" spans="1:9">
       <c r="A131" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>617</v>
+        <v>860</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -8249,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="G131" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="45">
+    <row r="132" spans="1:9" ht="75">
       <c r="A132" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
@@ -8281,15 +8350,15 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="45">
       <c r="A133" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>419</v>
+        <v>32</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -8299,29 +8368,29 @@
         <v>3</v>
       </c>
       <c r="G133" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I133" s="32"/>
     </row>
     <row r="134" spans="1:9" ht="30">
       <c r="A134" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G134" s="30" t="s">
         <v>16</v>
@@ -8333,13 +8402,13 @@
     </row>
     <row r="135" spans="1:9" ht="30">
       <c r="A135" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -8358,13 +8427,13 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -8383,13 +8452,13 @@
     </row>
     <row r="137" spans="1:9" ht="30">
       <c r="A137" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -8408,13 +8477,13 @@
     </row>
     <row r="138" spans="1:9" ht="30">
       <c r="A138" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -8433,13 +8502,13 @@
     </row>
     <row r="139" spans="1:9" ht="30">
       <c r="A139" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -8458,13 +8527,13 @@
     </row>
     <row r="140" spans="1:9" ht="30">
       <c r="A140" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -8483,13 +8552,13 @@
     </row>
     <row r="141" spans="1:9" ht="409.5">
       <c r="A141" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -8508,13 +8577,13 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -8533,13 +8602,13 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -8556,40 +8625,40 @@
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="30" t="s">
-        <v>167</v>
+        <v>874</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>630</v>
+        <v>877</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F144" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H144" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I144" s="32"/>
     </row>
     <row r="145" spans="1:9" ht="30">
       <c r="A145" s="30" t="s">
-        <v>168</v>
+        <v>875</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>631</v>
+        <v>876</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -8608,13 +8677,13 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -8624,72 +8693,72 @@
         <v>7</v>
       </c>
       <c r="G146" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H146" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>633</v>
+        <v>846</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G147" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H147" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9">
       <c r="A148" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G148" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I148" s="32"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
@@ -8699,103 +8768,99 @@
         <v>7</v>
       </c>
       <c r="G149" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H149" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F150" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G150" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H150" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="45">
+    <row r="151" spans="1:9">
       <c r="A151" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="D151" s="30"/>
       <c r="E151" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F151" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G151" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H151" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9">
       <c r="A152" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>863</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F152" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H152" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" ht="30">
+    <row r="153" spans="1:9" ht="45">
       <c r="A153" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>863</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
         <v>19</v>
       </c>
@@ -8812,16 +8877,16 @@
     </row>
     <row r="154" spans="1:9" ht="30">
       <c r="A154" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="E154" s="30" t="s">
         <v>19</v>
@@ -8839,16 +8904,16 @@
     </row>
     <row r="155" spans="1:9" ht="30">
       <c r="A155" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="E155" s="30" t="s">
         <v>19</v>
@@ -8864,90 +8929,94 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="D156" s="30"/>
+        <v>617</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>829</v>
+      </c>
       <c r="E156" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F156" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G156" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I156" s="32"/>
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="D157" s="30"/>
+        <v>618</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>829</v>
+      </c>
       <c r="E157" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F157" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G157" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H157" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="30">
+    <row r="158" spans="1:9">
       <c r="A158" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F158" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G158" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>645</v>
+        <v>861</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -8966,38 +9035,38 @@
     </row>
     <row r="160" spans="1:9" ht="30">
       <c r="A160" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F160" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G160" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H160" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I160" s="32"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -9014,15 +9083,15 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -9032,7 +9101,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H162" s="30" t="s">
         <v>18</v>
@@ -9041,13 +9110,13 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -9064,71 +9133,67 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9">
       <c r="A164" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F164" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G164" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H164" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9">
       <c r="A165" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="D165" s="30" t="s">
-        <v>864</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F165" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G165" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H165" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I165" s="32"/>
     </row>
     <row r="166" spans="1:9" ht="30">
       <c r="A166" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="D166" s="30" t="s">
-        <v>864</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
         <v>19</v>
       </c>
@@ -9143,17 +9208,19 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="45">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>653</v>
-      </c>
-      <c r="D167" s="30"/>
+        <v>627</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>830</v>
+      </c>
       <c r="E167" s="30" t="s">
         <v>19</v>
       </c>
@@ -9170,63 +9237,65 @@
     </row>
     <row r="168" spans="1:9" ht="30">
       <c r="A168" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>654</v>
-      </c>
-      <c r="D168" s="30"/>
+        <v>628</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>830</v>
+      </c>
       <c r="E168" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G168" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H168" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="225">
+    <row r="169" spans="1:9" ht="45">
       <c r="A169" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="D169" s="30"/>
       <c r="E169" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G169" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H169" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="D170" s="30"/>
       <c r="E170" s="30" t="s">
@@ -9243,15 +9312,15 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="225">
       <c r="A171" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -9264,19 +9333,19 @@
         <v>15</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I171" s="32"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -9286,7 +9355,7 @@
         <v>6</v>
       </c>
       <c r="G172" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H172" s="30" t="s">
         <v>18</v>
@@ -9295,13 +9364,13 @@
     </row>
     <row r="173" spans="1:9" ht="30">
       <c r="A173" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
@@ -9314,51 +9383,53 @@
         <v>15</v>
       </c>
       <c r="H173" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="30">
+    <row r="174" spans="1:9" ht="45">
       <c r="A174" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C174" s="32" t="s">
-        <v>660</v>
+        <v>424</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G174" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H174" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" s="32"/>
-    </row>
-    <row r="175" spans="1:9" ht="75">
+        <v>17</v>
+      </c>
+      <c r="I174" s="32" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G175" s="30" t="s">
         <v>15</v>
@@ -9368,15 +9439,15 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="45">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B176" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>662</v>
+        <v>862</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -9386,22 +9457,22 @@
         <v>3</v>
       </c>
       <c r="G176" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" ht="75">
       <c r="A177" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -9411,54 +9482,54 @@
         <v>3</v>
       </c>
       <c r="G177" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>427</v>
+        <v>33</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="D178" s="30"/>
       <c r="E178" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F178" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H178" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I178" s="32"/>
     </row>
     <row r="179" spans="1:9" ht="30">
       <c r="A179" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="D179" s="30"/>
       <c r="E179" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F179" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G179" s="30" t="s">
         <v>16</v>
@@ -9468,15 +9539,15 @@
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
@@ -9486,7 +9557,7 @@
         <v>7</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H180" s="30" t="s">
         <v>18</v>
@@ -9495,20 +9566,20 @@
     </row>
     <row r="181" spans="1:9" ht="30">
       <c r="A181" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G181" s="30" t="s">
         <v>16</v>
@@ -9518,47 +9589,47 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9">
       <c r="A182" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G182" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I182" s="32"/>
     </row>
     <row r="183" spans="1:9" ht="30">
       <c r="A183" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F183" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G183" s="30" t="s">
         <v>16</v>
@@ -9570,63 +9641,63 @@
     </row>
     <row r="184" spans="1:9" ht="30">
       <c r="A184" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F184" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G184" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H184" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" ht="135">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F185" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H185" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -9643,15 +9714,15 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" ht="135">
       <c r="A187" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="30" t="s">
@@ -9661,29 +9732,29 @@
         <v>7</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H187" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I187" s="32"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9">
       <c r="A188" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G188" s="30" t="s">
         <v>16</v>
@@ -9693,40 +9764,40 @@
       </c>
       <c r="I188" s="32"/>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9">
       <c r="A189" s="30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F189" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H189" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" ht="60">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -9736,54 +9807,54 @@
         <v>6</v>
       </c>
       <c r="G190" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I190" s="32"/>
     </row>
     <row r="191" spans="1:9" ht="30">
       <c r="A191" s="30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G191" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="75">
+    <row r="192" spans="1:9" ht="60">
       <c r="A192" s="30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F192" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G192" s="30" t="s">
         <v>15</v>
@@ -9793,15 +9864,15 @@
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" ht="45">
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>679</v>
+        <v>863</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
@@ -9811,22 +9882,22 @@
         <v>3</v>
       </c>
       <c r="G193" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9" ht="75">
       <c r="A194" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -9836,54 +9907,54 @@
         <v>3</v>
       </c>
       <c r="G194" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="45">
       <c r="A195" s="30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G195" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I195" s="32"/>
     </row>
     <row r="196" spans="1:9" ht="30">
       <c r="A196" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G196" s="30" t="s">
         <v>16</v>
@@ -9893,15 +9964,15 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>683</v>
+        <v>654</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
@@ -9911,7 +9982,7 @@
         <v>7</v>
       </c>
       <c r="G197" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H197" s="30" t="s">
         <v>18</v>
@@ -9920,20 +9991,20 @@
     </row>
     <row r="198" spans="1:9" ht="30">
       <c r="A198" s="30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F198" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G198" s="30" t="s">
         <v>16</v>
@@ -9943,47 +10014,47 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9">
       <c r="A199" s="30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G199" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H199" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I199" s="32"/>
     </row>
     <row r="200" spans="1:9" ht="30">
       <c r="A200" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G200" s="30" t="s">
         <v>16</v>
@@ -9995,63 +10066,63 @@
     </row>
     <row r="201" spans="1:9" ht="30">
       <c r="A201" s="30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G201" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H201" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="135">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B202" s="31" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G202" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H202" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
@@ -10061,22 +10132,22 @@
         <v>7</v>
       </c>
       <c r="G203" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H203" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I203" s="32"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" ht="135">
       <c r="A204" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B204" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
@@ -10086,29 +10157,29 @@
         <v>7</v>
       </c>
       <c r="G204" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H204" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I204" s="32"/>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9">
       <c r="A205" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B205" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G205" s="30" t="s">
         <v>16</v>
@@ -10118,40 +10189,40 @@
       </c>
       <c r="I205" s="32"/>
     </row>
-    <row r="206" spans="1:9" ht="225">
+    <row r="206" spans="1:9">
       <c r="A206" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B206" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F206" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G206" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H206" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B207" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
@@ -10168,15 +10239,15 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="45">
+    <row r="208" spans="1:9" ht="225">
       <c r="A208" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B208" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -10189,19 +10260,19 @@
         <v>15</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9">
       <c r="A209" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -10211,54 +10282,54 @@
         <v>6</v>
       </c>
       <c r="G209" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H209" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B210" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="D210" s="30"/>
       <c r="E210" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G210" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H210" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I210" s="32"/>
     </row>
-    <row r="211" spans="1:9" ht="75">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B211" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="C211" s="32" t="s">
-        <v>697</v>
+        <v>437</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>668</v>
       </c>
       <c r="D211" s="30"/>
       <c r="E211" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G211" s="30" t="s">
         <v>15</v>
@@ -10268,15 +10339,15 @@
       </c>
       <c r="I211" s="32"/>
     </row>
-    <row r="212" spans="1:9" ht="45">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B212" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>698</v>
+        <v>864</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -10286,22 +10357,22 @@
         <v>3</v>
       </c>
       <c r="G212" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H212" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9" ht="75">
       <c r="A213" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -10311,54 +10382,54 @@
         <v>3</v>
       </c>
       <c r="G213" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H213" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9" ht="45">
       <c r="A214" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B214" s="31" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G214" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H214" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I214" s="32"/>
     </row>
     <row r="215" spans="1:9" ht="30">
       <c r="A215" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F215" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G215" s="30" t="s">
         <v>16</v>
@@ -10370,13 +10441,13 @@
     </row>
     <row r="216" spans="1:9" ht="30">
       <c r="A216" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B216" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -10386,7 +10457,7 @@
         <v>7</v>
       </c>
       <c r="G216" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H216" s="30" t="s">
         <v>18</v>
@@ -10395,20 +10466,20 @@
     </row>
     <row r="217" spans="1:9" ht="30">
       <c r="A217" s="30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F217" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G217" s="30" t="s">
         <v>16</v>
@@ -10420,45 +10491,45 @@
     </row>
     <row r="218" spans="1:9" ht="30">
       <c r="A218" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B218" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F218" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G218" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H218" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I218" s="32"/>
     </row>
     <row r="219" spans="1:9" ht="30">
       <c r="A219" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B219" s="31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G219" s="30" t="s">
         <v>16</v>
@@ -10470,63 +10541,63 @@
     </row>
     <row r="220" spans="1:9" ht="30">
       <c r="A220" s="30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B220" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F220" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G220" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I220" s="32"/>
     </row>
-    <row r="221" spans="1:9" ht="120">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B221" s="31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F221" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G221" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H221" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
@@ -10543,65 +10614,65 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="120">
       <c r="A223" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B223" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G223" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H223" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="375">
+    <row r="224" spans="1:9">
       <c r="A224" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B224" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G224" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I224" s="32"/>
     </row>
     <row r="225" spans="1:9" ht="30">
       <c r="A225" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -10618,15 +10689,15 @@
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" ht="45">
+    <row r="226" spans="1:9" ht="375">
       <c r="A226" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -10639,19 +10710,19 @@
         <v>15</v>
       </c>
       <c r="H226" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" ht="45">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -10661,54 +10732,54 @@
         <v>6</v>
       </c>
       <c r="G227" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H227" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" ht="45">
       <c r="A228" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F228" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G228" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="75">
+    <row r="229" spans="1:9" ht="45">
       <c r="A229" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F229" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G229" s="30" t="s">
         <v>15</v>
@@ -10718,40 +10789,40 @@
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="45">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>716</v>
+        <v>865</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F230" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G230" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H230" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="75">
       <c r="A231" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
@@ -10761,54 +10832,54 @@
         <v>3</v>
       </c>
       <c r="G231" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9" ht="45">
       <c r="A232" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F232" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G232" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H232" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I232" s="32"/>
     </row>
     <row r="233" spans="1:9" ht="30">
       <c r="A233" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F233" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G233" s="30" t="s">
         <v>16</v>
@@ -10820,13 +10891,13 @@
     </row>
     <row r="234" spans="1:9" ht="30">
       <c r="A234" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -10836,7 +10907,7 @@
         <v>7</v>
       </c>
       <c r="G234" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H234" s="30" t="s">
         <v>18</v>
@@ -10845,20 +10916,20 @@
     </row>
     <row r="235" spans="1:9" ht="30">
       <c r="A235" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F235" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G235" s="30" t="s">
         <v>16</v>
@@ -10870,45 +10941,45 @@
     </row>
     <row r="236" spans="1:9" ht="30">
       <c r="A236" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F236" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G236" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H236" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I236" s="32"/>
     </row>
     <row r="237" spans="1:9" ht="30">
       <c r="A237" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F237" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G237" s="30" t="s">
         <v>16</v>
@@ -10920,63 +10991,63 @@
     </row>
     <row r="238" spans="1:9" ht="30">
       <c r="A238" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="D238" s="30"/>
       <c r="E238" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G238" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H238" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" ht="135">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="D239" s="30"/>
       <c r="E239" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G239" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H239" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
@@ -10993,15 +11064,15 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" ht="135">
       <c r="A241" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -11011,29 +11082,29 @@
         <v>7</v>
       </c>
       <c r="G241" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H241" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="30">
+    <row r="242" spans="1:9">
       <c r="A242" s="30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="D242" s="30"/>
       <c r="E242" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G242" s="30" t="s">
         <v>16</v>
@@ -11043,40 +11114,40 @@
       </c>
       <c r="I242" s="32"/>
     </row>
-    <row r="243" spans="1:9" ht="240">
+    <row r="243" spans="1:9">
       <c r="A243" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G243" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H243" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="D244" s="30"/>
       <c r="E244" s="30" t="s">
@@ -11093,15 +11164,15 @@
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" ht="240">
       <c r="A245" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="D245" s="30"/>
       <c r="E245" s="30" t="s">
@@ -11114,19 +11185,19 @@
         <v>15</v>
       </c>
       <c r="H245" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I245" s="32"/>
     </row>
-    <row r="246" spans="1:9" ht="30">
+    <row r="246" spans="1:9">
       <c r="A246" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="D246" s="30"/>
       <c r="E246" s="30" t="s">
@@ -11145,63 +11216,63 @@
     </row>
     <row r="247" spans="1:9" ht="30">
       <c r="A247" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="D247" s="30"/>
       <c r="E247" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F247" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G247" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H247" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:9" ht="75">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="D248" s="30"/>
       <c r="E248" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G248" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I248" s="32"/>
     </row>
-    <row r="249" spans="1:9" ht="45">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="D249" s="30"/>
       <c r="E249" s="30" t="s">
@@ -11211,22 +11282,22 @@
         <v>3</v>
       </c>
       <c r="G249" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H249" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I249" s="32"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="75">
       <c r="A250" s="30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
@@ -11236,54 +11307,54 @@
         <v>3</v>
       </c>
       <c r="G250" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H250" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="45">
       <c r="A251" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F251" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G251" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H251" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I251" s="32"/>
     </row>
     <row r="252" spans="1:9" ht="30">
       <c r="A252" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F252" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G252" s="30" t="s">
         <v>16</v>
@@ -11295,13 +11366,13 @@
     </row>
     <row r="253" spans="1:9" ht="30">
       <c r="A253" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B253" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -11311,7 +11382,7 @@
         <v>7</v>
       </c>
       <c r="G253" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H253" s="30" t="s">
         <v>18</v>
@@ -11320,20 +11391,20 @@
     </row>
     <row r="254" spans="1:9" ht="30">
       <c r="A254" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F254" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G254" s="30" t="s">
         <v>16</v>
@@ -11345,45 +11416,45 @@
     </row>
     <row r="255" spans="1:9" ht="30">
       <c r="A255" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F255" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G255" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H255" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I255" s="32"/>
     </row>
     <row r="256" spans="1:9" ht="30">
       <c r="A256" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G256" s="30" t="s">
         <v>16</v>
@@ -11395,63 +11466,63 @@
     </row>
     <row r="257" spans="1:9" ht="30">
       <c r="A257" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="D257" s="30"/>
       <c r="E257" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G257" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H257" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="409.5">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="D258" s="30"/>
       <c r="E258" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G258" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H258" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="D259" s="30"/>
       <c r="E259" s="30" t="s">
@@ -11468,15 +11539,15 @@
       </c>
       <c r="I259" s="32"/>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" ht="409.5">
       <c r="A260" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="D260" s="30"/>
       <c r="E260" s="30" t="s">
@@ -11486,7 +11557,7 @@
         <v>7</v>
       </c>
       <c r="G260" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H260" s="30" t="s">
         <v>18</v>
@@ -11495,13 +11566,13 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C261" s="32" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="D261" s="30"/>
       <c r="E261" s="30" t="s">
@@ -11520,13 +11591,13 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C262" s="32" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="D262" s="30"/>
       <c r="E262" s="30" t="s">
@@ -11545,13 +11616,13 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="D263" s="30"/>
       <c r="E263" s="30" t="s">
@@ -11570,13 +11641,13 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="D264" s="30"/>
       <c r="E264" s="30" t="s">
@@ -11595,13 +11666,13 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B265" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="D265" s="30"/>
       <c r="E265" s="30" t="s">
@@ -11620,13 +11691,13 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="D266" s="30"/>
       <c r="E266" s="30" t="s">
@@ -11643,22 +11714,22 @@
       </c>
       <c r="I266" s="32"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9">
       <c r="A267" s="30" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C267" s="32" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G267" s="30" t="s">
         <v>16</v>
@@ -11668,40 +11739,40 @@
       </c>
       <c r="I267" s="32"/>
     </row>
-    <row r="268" spans="1:9" ht="240">
+    <row r="268" spans="1:9">
       <c r="A268" s="30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="D268" s="30"/>
       <c r="E268" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G268" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H268" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I268" s="32"/>
     </row>
     <row r="269" spans="1:9" ht="30">
       <c r="A269" s="30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B269" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D269" s="30"/>
       <c r="E269" s="30" t="s">
@@ -11711,22 +11782,22 @@
         <v>6</v>
       </c>
       <c r="G269" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H269" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I269" s="32"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="240">
       <c r="A270" s="30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B270" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="D270" s="30"/>
       <c r="E270" s="30" t="s">
@@ -11736,72 +11807,72 @@
         <v>6</v>
       </c>
       <c r="G270" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H270" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I270" s="32"/>
     </row>
     <row r="271" spans="1:9" ht="30">
       <c r="A271" s="30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="D271" s="30"/>
       <c r="E271" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F271" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G271" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H271" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I271" s="32"/>
     </row>
-    <row r="272" spans="1:9" ht="75">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="D272" s="30"/>
       <c r="E272" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F272" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G272" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H272" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I272" s="32"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>759</v>
+        <v>866</v>
       </c>
       <c r="D273" s="30"/>
       <c r="E273" s="30" t="s">
@@ -11811,133 +11882,133 @@
         <v>3</v>
       </c>
       <c r="G273" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H273" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I273" s="32"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="75">
       <c r="A274" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="D274" s="30"/>
       <c r="E274" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F274" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G274" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H274" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I274" s="32" t="s">
-        <v>870</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I274" s="32"/>
     </row>
     <row r="275" spans="1:9" ht="45">
       <c r="A275" s="30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="D275" s="30" t="s">
-        <v>865</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="D275" s="30"/>
       <c r="E275" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F275" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G275" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H275" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="45">
       <c r="A276" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F276" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G276" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H276" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I276" s="32"/>
-    </row>
-    <row r="277" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I276" s="32" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="45">
       <c r="A277" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>763</v>
-      </c>
-      <c r="D277" s="30"/>
+        <v>731</v>
+      </c>
+      <c r="D277" s="30" t="s">
+        <v>831</v>
+      </c>
       <c r="E277" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F277" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G277" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H277" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I277" s="32"/>
     </row>
     <row r="278" spans="1:9" ht="30">
       <c r="A278" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C278" s="32" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F278" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G278" s="30" t="s">
         <v>16</v>
@@ -11949,13 +12020,13 @@
     </row>
     <row r="279" spans="1:9" ht="30">
       <c r="A279" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C279" s="32" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30" t="s">
@@ -11965,7 +12036,7 @@
         <v>7</v>
       </c>
       <c r="G279" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H279" s="30" t="s">
         <v>18</v>
@@ -11974,20 +12045,20 @@
     </row>
     <row r="280" spans="1:9" ht="30">
       <c r="A280" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F280" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G280" s="30" t="s">
         <v>16</v>
@@ -11999,45 +12070,45 @@
     </row>
     <row r="281" spans="1:9" ht="30">
       <c r="A281" s="30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="D281" s="30"/>
       <c r="E281" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F281" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G281" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H281" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I281" s="32"/>
     </row>
     <row r="282" spans="1:9" ht="30">
       <c r="A282" s="30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F282" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G282" s="30" t="s">
         <v>16</v>
@@ -12049,63 +12120,63 @@
     </row>
     <row r="283" spans="1:9" ht="30">
       <c r="A283" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="D283" s="30"/>
       <c r="E283" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F283" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G283" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H283" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="409.5">
+    <row r="284" spans="1:9" ht="30">
       <c r="A284" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="D284" s="30"/>
       <c r="E284" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F284" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G284" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H284" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I284" s="32"/>
     </row>
-    <row r="285" spans="1:9" ht="45">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="D285" s="30"/>
       <c r="E285" s="30" t="s">
@@ -12115,72 +12186,72 @@
         <v>7</v>
       </c>
       <c r="G285" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H285" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" ht="409.5">
       <c r="A286" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="D286" s="30"/>
       <c r="E286" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F286" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G286" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H286" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I286" s="32"/>
     </row>
-    <row r="287" spans="1:9" ht="240">
+    <row r="287" spans="1:9" ht="45">
       <c r="A287" s="30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="D287" s="30"/>
       <c r="E287" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F287" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G287" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H287" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I287" s="32"/>
     </row>
     <row r="288" spans="1:9" ht="30">
       <c r="A288" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="D288" s="30"/>
       <c r="E288" s="30" t="s">
@@ -12190,22 +12261,22 @@
         <v>6</v>
       </c>
       <c r="G288" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H288" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I288" s="32"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="240">
       <c r="A289" s="30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C289" s="32" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="D289" s="30"/>
       <c r="E289" s="30" t="s">
@@ -12215,74 +12286,72 @@
         <v>6</v>
       </c>
       <c r="G289" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H289" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I289" s="32"/>
     </row>
-    <row r="290" spans="1:9" ht="45">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B290" s="31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C290" s="32" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="D290" s="30"/>
       <c r="E290" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F290" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G290" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H290" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I290" s="32" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="75">
+        <v>20</v>
+      </c>
+      <c r="I290" s="32"/>
+    </row>
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B291" s="31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C291" s="32" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="D291" s="30"/>
       <c r="E291" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F291" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G291" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H291" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I291" s="32"/>
     </row>
     <row r="292" spans="1:9" ht="45">
       <c r="A292" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B292" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="C292" s="32" t="s">
-        <v>778</v>
+        <v>466</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>879</v>
       </c>
       <c r="D292" s="30"/>
       <c r="E292" s="30" t="s">
@@ -12295,19 +12364,21 @@
         <v>15</v>
       </c>
       <c r="H292" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I292" s="32"/>
-    </row>
-    <row r="293" spans="1:9" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I292" s="32" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="75">
       <c r="A293" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B293" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>779</v>
+        <v>746</v>
       </c>
       <c r="D293" s="30"/>
       <c r="E293" s="30" t="s">
@@ -12317,54 +12388,54 @@
         <v>3</v>
       </c>
       <c r="G293" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H293" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I293" s="32"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B294" s="31" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C294" s="32" t="s">
-        <v>780</v>
+        <v>747</v>
       </c>
       <c r="D294" s="30"/>
       <c r="E294" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F294" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G294" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H294" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I294" s="32"/>
     </row>
     <row r="295" spans="1:9" ht="30">
       <c r="A295" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B295" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C295" s="32" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
       <c r="D295" s="30"/>
       <c r="E295" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F295" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G295" s="30" t="s">
         <v>16</v>
@@ -12376,13 +12447,13 @@
     </row>
     <row r="296" spans="1:9" ht="30">
       <c r="A296" s="30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B296" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C296" s="32" t="s">
-        <v>782</v>
+        <v>749</v>
       </c>
       <c r="D296" s="30"/>
       <c r="E296" s="30" t="s">
@@ -12392,7 +12463,7 @@
         <v>7</v>
       </c>
       <c r="G296" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H296" s="30" t="s">
         <v>18</v>
@@ -12401,20 +12472,20 @@
     </row>
     <row r="297" spans="1:9" ht="30">
       <c r="A297" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>783</v>
+        <v>750</v>
       </c>
       <c r="D297" s="30"/>
       <c r="E297" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F297" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G297" s="30" t="s">
         <v>16</v>
@@ -12426,45 +12497,45 @@
     </row>
     <row r="298" spans="1:9" ht="30">
       <c r="A298" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="D298" s="30"/>
       <c r="E298" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F298" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G298" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H298" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I298" s="32"/>
     </row>
     <row r="299" spans="1:9" ht="30">
       <c r="A299" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C299" s="32" t="s">
-        <v>785</v>
+        <v>752</v>
       </c>
       <c r="D299" s="30"/>
       <c r="E299" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F299" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G299" s="30" t="s">
         <v>16</v>
@@ -12476,63 +12547,63 @@
     </row>
     <row r="300" spans="1:9" ht="30">
       <c r="A300" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B300" s="31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C300" s="32" t="s">
-        <v>786</v>
+        <v>753</v>
       </c>
       <c r="D300" s="30"/>
       <c r="E300" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F300" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G300" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H300" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I300" s="32"/>
     </row>
-    <row r="301" spans="1:9" ht="409.5">
+    <row r="301" spans="1:9" ht="30">
       <c r="A301" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B301" s="31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C301" s="32" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="D301" s="30"/>
       <c r="E301" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F301" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G301" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H301" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I301" s="32"/>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B302" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C302" s="32" t="s">
-        <v>788</v>
+        <v>755</v>
       </c>
       <c r="D302" s="30"/>
       <c r="E302" s="30" t="s">
@@ -12549,15 +12620,15 @@
       </c>
       <c r="I302" s="32"/>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" ht="409.5">
       <c r="A303" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B303" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C303" s="32" t="s">
-        <v>789</v>
+        <v>756</v>
       </c>
       <c r="D303" s="30"/>
       <c r="E303" s="30" t="s">
@@ -12567,7 +12638,7 @@
         <v>7</v>
       </c>
       <c r="G303" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H303" s="30" t="s">
         <v>18</v>
@@ -12576,13 +12647,13 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304" s="30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B304" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C304" s="32" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
       <c r="D304" s="30"/>
       <c r="E304" s="30" t="s">
@@ -12601,13 +12672,13 @@
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="30" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B305" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C305" s="32" t="s">
-        <v>791</v>
+        <v>758</v>
       </c>
       <c r="D305" s="30"/>
       <c r="E305" s="30" t="s">
@@ -12626,13 +12697,13 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B306" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C306" s="32" t="s">
-        <v>792</v>
+        <v>759</v>
       </c>
       <c r="D306" s="30"/>
       <c r="E306" s="30" t="s">
@@ -12651,13 +12722,13 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307" s="30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B307" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C307" s="32" t="s">
-        <v>793</v>
+        <v>760</v>
       </c>
       <c r="D307" s="30"/>
       <c r="E307" s="30" t="s">
@@ -12676,13 +12747,13 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="30" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B308" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C308" s="32" t="s">
-        <v>794</v>
+        <v>761</v>
       </c>
       <c r="D308" s="30"/>
       <c r="E308" s="30" t="s">
@@ -12701,13 +12772,13 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B309" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C309" s="32" t="s">
-        <v>795</v>
+        <v>762</v>
       </c>
       <c r="D309" s="30"/>
       <c r="E309" s="30" t="s">
@@ -12726,13 +12797,13 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B310" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C310" s="32" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
       <c r="D310" s="30"/>
       <c r="E310" s="30" t="s">
@@ -12751,13 +12822,13 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B311" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C311" s="32" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="D311" s="30"/>
       <c r="E311" s="30" t="s">
@@ -12776,13 +12847,13 @@
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B312" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C312" s="32" t="s">
-        <v>798</v>
+        <v>765</v>
       </c>
       <c r="D312" s="30"/>
       <c r="E312" s="30" t="s">
@@ -12801,13 +12872,13 @@
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B313" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C313" s="32" t="s">
-        <v>799</v>
+        <v>766</v>
       </c>
       <c r="D313" s="30"/>
       <c r="E313" s="30" t="s">
@@ -12826,13 +12897,13 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="D314" s="30"/>
       <c r="E314" s="30" t="s">
@@ -12851,13 +12922,13 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B315" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C315" s="32" t="s">
-        <v>801</v>
+        <v>768</v>
       </c>
       <c r="D315" s="30"/>
       <c r="E315" s="30" t="s">
@@ -12874,15 +12945,15 @@
       </c>
       <c r="I315" s="32"/>
     </row>
-    <row r="316" spans="1:9" ht="30">
+    <row r="316" spans="1:9">
       <c r="A316" s="30" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B316" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C316" s="32" t="s">
-        <v>802</v>
+        <v>769</v>
       </c>
       <c r="D316" s="30"/>
       <c r="E316" s="30" t="s">
@@ -12899,40 +12970,40 @@
       </c>
       <c r="I316" s="32"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9">
       <c r="A317" s="30" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B317" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C317" s="32" t="s">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="D317" s="30"/>
       <c r="E317" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F317" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G317" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H317" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I317" s="32"/>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" ht="30">
       <c r="A318" s="30" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B318" s="31" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C318" s="32" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="D318" s="30"/>
       <c r="E318" s="30" t="s">
@@ -12949,40 +13020,40 @@
       </c>
       <c r="I318" s="32"/>
     </row>
-    <row r="319" spans="1:9" ht="135">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B319" s="31" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C319" s="32" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="D319" s="30"/>
       <c r="E319" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F319" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G319" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H319" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I319" s="32"/>
     </row>
-    <row r="320" spans="1:9" ht="30">
+    <row r="320" spans="1:9">
       <c r="A320" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B320" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C320" s="32" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
       <c r="D320" s="30"/>
       <c r="E320" s="30" t="s">
@@ -12999,15 +13070,15 @@
       </c>
       <c r="I320" s="32"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="135">
       <c r="A321" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B321" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C321" s="32" t="s">
-        <v>807</v>
+        <v>773</v>
       </c>
       <c r="D321" s="30"/>
       <c r="E321" s="30" t="s">
@@ -13017,22 +13088,22 @@
         <v>7</v>
       </c>
       <c r="G321" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H321" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I321" s="32"/>
     </row>
-    <row r="322" spans="1:9" ht="240">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B322" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C322" s="32" t="s">
-        <v>808</v>
+        <v>774</v>
       </c>
       <c r="D322" s="30"/>
       <c r="E322" s="30" t="s">
@@ -13042,7 +13113,7 @@
         <v>7</v>
       </c>
       <c r="G322" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H322" s="30" t="s">
         <v>18</v>
@@ -13051,13 +13122,13 @@
     </row>
     <row r="323" spans="1:9" ht="30">
       <c r="A323" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B323" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>809</v>
+        <v>775</v>
       </c>
       <c r="D323" s="30"/>
       <c r="E323" s="30" t="s">
@@ -13074,15 +13145,15 @@
       </c>
       <c r="I323" s="32"/>
     </row>
-    <row r="324" spans="1:9" ht="30">
+    <row r="324" spans="1:9" ht="240">
       <c r="A324" s="30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B324" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="D324" s="30"/>
       <c r="E324" s="30" t="s">
@@ -13092,22 +13163,22 @@
         <v>7</v>
       </c>
       <c r="G324" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H324" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I324" s="32"/>
     </row>
-    <row r="325" spans="1:9" ht="240">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="30" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B325" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>811</v>
+        <v>777</v>
       </c>
       <c r="D325" s="30"/>
       <c r="E325" s="30" t="s">
@@ -13117,7 +13188,7 @@
         <v>7</v>
       </c>
       <c r="G325" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H325" s="30" t="s">
         <v>18</v>
@@ -13126,13 +13197,13 @@
     </row>
     <row r="326" spans="1:9" ht="30">
       <c r="A326" s="30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B326" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C326" s="32" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="D326" s="30"/>
       <c r="E326" s="30" t="s">
@@ -13149,15 +13220,15 @@
       </c>
       <c r="I326" s="32"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="240">
       <c r="A327" s="30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B327" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C327" s="32" t="s">
-        <v>813</v>
+        <v>779</v>
       </c>
       <c r="D327" s="30"/>
       <c r="E327" s="30" t="s">
@@ -13167,22 +13238,22 @@
         <v>7</v>
       </c>
       <c r="G327" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H327" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I327" s="32"/>
     </row>
-    <row r="328" spans="1:9" ht="240">
+    <row r="328" spans="1:9" ht="30">
       <c r="A328" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B328" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C328" s="32" t="s">
-        <v>814</v>
+        <v>780</v>
       </c>
       <c r="D328" s="30"/>
       <c r="E328" s="30" t="s">
@@ -13192,7 +13263,7 @@
         <v>7</v>
       </c>
       <c r="G328" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H328" s="30" t="s">
         <v>18</v>
@@ -13201,13 +13272,13 @@
     </row>
     <row r="329" spans="1:9" ht="30">
       <c r="A329" s="30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="D329" s="30"/>
       <c r="E329" s="30" t="s">
@@ -13224,15 +13295,15 @@
       </c>
       <c r="I329" s="32"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9" ht="240">
       <c r="A330" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="D330" s="30"/>
       <c r="E330" s="30" t="s">
@@ -13242,22 +13313,22 @@
         <v>7</v>
       </c>
       <c r="G330" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H330" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I330" s="32"/>
     </row>
-    <row r="331" spans="1:9" ht="240">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="30" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B331" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C331" s="32" t="s">
-        <v>817</v>
+        <v>783</v>
       </c>
       <c r="D331" s="30"/>
       <c r="E331" s="30" t="s">
@@ -13267,7 +13338,7 @@
         <v>7</v>
       </c>
       <c r="G331" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H331" s="30" t="s">
         <v>18</v>
@@ -13276,13 +13347,13 @@
     </row>
     <row r="332" spans="1:9" ht="30">
       <c r="A332" s="30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B332" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C332" s="32" t="s">
-        <v>818</v>
+        <v>784</v>
       </c>
       <c r="D332" s="30"/>
       <c r="E332" s="30" t="s">
@@ -13299,15 +13370,15 @@
       </c>
       <c r="I332" s="32"/>
     </row>
-    <row r="333" spans="1:9" ht="60">
+    <row r="333" spans="1:9" ht="240">
       <c r="A333" s="30" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B333" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C333" s="32" t="s">
-        <v>819</v>
+        <v>785</v>
       </c>
       <c r="D333" s="30"/>
       <c r="E333" s="30" t="s">
@@ -13324,15 +13395,15 @@
       </c>
       <c r="I333" s="32"/>
     </row>
-    <row r="334" spans="1:9" ht="240">
+    <row r="334" spans="1:9" ht="30">
       <c r="A334" s="30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B334" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C334" s="32" t="s">
-        <v>820</v>
+        <v>786</v>
       </c>
       <c r="D334" s="30"/>
       <c r="E334" s="30" t="s">
@@ -13342,22 +13413,22 @@
         <v>7</v>
       </c>
       <c r="G334" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H334" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I334" s="32"/>
     </row>
-    <row r="335" spans="1:9" ht="30">
+    <row r="335" spans="1:9" ht="60">
       <c r="A335" s="30" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B335" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>821</v>
+        <v>787</v>
       </c>
       <c r="D335" s="30"/>
       <c r="E335" s="30" t="s">
@@ -13367,72 +13438,72 @@
         <v>7</v>
       </c>
       <c r="G335" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H335" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I335" s="32"/>
     </row>
-    <row r="336" spans="1:9" ht="30">
+    <row r="336" spans="1:9" ht="240">
       <c r="A336" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B336" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>822</v>
+        <v>788</v>
       </c>
       <c r="D336" s="30"/>
       <c r="E336" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F336" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G336" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H336" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I336" s="32"/>
     </row>
-    <row r="337" spans="1:9" ht="240">
+    <row r="337" spans="1:9" ht="30">
       <c r="A337" s="30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B337" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>823</v>
+        <v>789</v>
       </c>
       <c r="D337" s="30"/>
       <c r="E337" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F337" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G337" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H337" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I337" s="32"/>
     </row>
     <row r="338" spans="1:9" ht="30">
       <c r="A338" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B338" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C338" s="32" t="s">
-        <v>824</v>
+        <v>790</v>
       </c>
       <c r="D338" s="30"/>
       <c r="E338" s="30" t="s">
@@ -13442,22 +13513,22 @@
         <v>6</v>
       </c>
       <c r="G338" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H338" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I338" s="32"/>
     </row>
-    <row r="339" spans="1:9" ht="30">
+    <row r="339" spans="1:9" ht="240">
       <c r="A339" s="30" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B339" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C339" s="32" t="s">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="D339" s="30"/>
       <c r="E339" s="30" t="s">
@@ -13467,54 +13538,54 @@
         <v>6</v>
       </c>
       <c r="G339" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H339" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I339" s="32"/>
     </row>
-    <row r="340" spans="1:9" ht="45">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B340" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C340" s="32" t="s">
-        <v>826</v>
+        <v>792</v>
       </c>
       <c r="D340" s="30"/>
       <c r="E340" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F340" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G340" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H340" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I340" s="32"/>
     </row>
     <row r="341" spans="1:9" ht="30">
       <c r="A341" s="30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B341" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C341" s="32" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="D341" s="30"/>
       <c r="E341" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F341" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G341" s="30" t="s">
         <v>16</v>
@@ -13526,69 +13597,67 @@
     </row>
     <row r="342" spans="1:9" ht="45">
       <c r="A342" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B342" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C342" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="D342" s="30" t="s">
-        <v>866</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="D342" s="30"/>
       <c r="E342" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F342" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G342" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H342" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I342" s="32" t="s">
-        <v>872</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I342" s="32"/>
     </row>
     <row r="343" spans="1:9" ht="30">
       <c r="A343" s="30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B343" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C343" s="32" t="s">
-        <v>829</v>
+        <v>795</v>
       </c>
       <c r="D343" s="30"/>
       <c r="E343" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F343" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G343" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H343" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I343" s="32"/>
     </row>
-    <row r="344" spans="1:9" ht="60">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B344" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C344" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="D344" s="30"/>
+        <v>796</v>
+      </c>
+      <c r="D344" s="30" t="s">
+        <v>832</v>
+      </c>
       <c r="E344" s="30" t="s">
         <v>22</v>
       </c>
@@ -13599,22 +13668,24 @@
         <v>15</v>
       </c>
       <c r="H344" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I344" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="I344" s="32" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="345" spans="1:9" ht="45">
       <c r="A345" s="30" t="s">
-        <v>368</v>
+        <v>873</v>
       </c>
       <c r="B345" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C345" s="32" t="s">
-        <v>831</v>
+        <v>887</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="E345" s="30" t="s">
         <v>22</v>
@@ -13626,22 +13697,24 @@
         <v>15</v>
       </c>
       <c r="H345" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I345" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="I345" s="32" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="346" spans="1:9" ht="45">
       <c r="A346" s="30" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B346" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C346" s="32" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="E346" s="30" t="s">
         <v>22</v>
@@ -13656,27 +13729,27 @@
         <v>20</v>
       </c>
       <c r="I346" s="32" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" ht="60">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="45">
       <c r="A347" s="30" t="s">
-        <v>370</v>
+        <v>883</v>
       </c>
       <c r="B347" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C347" s="32" t="s">
-        <v>833</v>
+        <v>881</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E347" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F347" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G347" s="30" t="s">
         <v>15</v>
@@ -13685,22 +13758,22 @@
         <v>20</v>
       </c>
       <c r="I347" s="32" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" ht="105">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="60">
       <c r="A348" s="30" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B348" s="31" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C348" s="32" t="s">
-        <v>834</v>
+        <v>880</v>
       </c>
       <c r="D348" s="30"/>
       <c r="E348" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F348" s="30" t="s">
         <v>6</v>
@@ -13709,23 +13782,25 @@
         <v>15</v>
       </c>
       <c r="H348" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I348" s="32"/>
     </row>
-    <row r="349" spans="1:9" ht="90">
+    <row r="349" spans="1:9" ht="45">
       <c r="A349" s="30" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B349" s="31" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C349" s="32" t="s">
-        <v>835</v>
-      </c>
-      <c r="D349" s="30"/>
+        <v>797</v>
+      </c>
+      <c r="D349" s="30" t="s">
+        <v>833</v>
+      </c>
       <c r="E349" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F349" s="30" t="s">
         <v>6</v>
@@ -13734,23 +13809,25 @@
         <v>15</v>
       </c>
       <c r="H349" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I349" s="32"/>
     </row>
-    <row r="350" spans="1:9" ht="105">
+    <row r="350" spans="1:9" ht="45">
       <c r="A350" s="30" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B350" s="31" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C350" s="32" t="s">
-        <v>836</v>
-      </c>
-      <c r="D350" s="30"/>
+        <v>798</v>
+      </c>
+      <c r="D350" s="30" t="s">
+        <v>833</v>
+      </c>
       <c r="E350" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F350" s="30" t="s">
         <v>6</v>
@@ -13759,23 +13836,27 @@
         <v>15</v>
       </c>
       <c r="H350" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I350" s="32"/>
-    </row>
-    <row r="351" spans="1:9" ht="195">
+        <v>20</v>
+      </c>
+      <c r="I350" s="32" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="60">
       <c r="A351" s="30" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B351" s="31" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C351" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="D351" s="30"/>
+        <v>799</v>
+      </c>
+      <c r="D351" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="E351" s="30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F351" s="30" t="s">
         <v>3</v>
@@ -13784,76 +13865,78 @@
         <v>15</v>
       </c>
       <c r="H351" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I351" s="32"/>
-    </row>
-    <row r="352" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I351" s="32" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="105">
       <c r="A352" s="30" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B352" s="31" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C352" s="32" t="s">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="D352" s="30"/>
       <c r="E352" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F352" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G352" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H352" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I352" s="32"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="90">
       <c r="A353" s="30" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B353" s="31" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C353" s="32" t="s">
-        <v>839</v>
+        <v>801</v>
       </c>
       <c r="D353" s="30"/>
       <c r="E353" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F353" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G353" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H353" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I353" s="32"/>
     </row>
-    <row r="354" spans="1:9" ht="330">
+    <row r="354" spans="1:9" ht="105">
       <c r="A354" s="30" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B354" s="31" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C354" s="32" t="s">
-        <v>840</v>
+        <v>802</v>
       </c>
       <c r="D354" s="30"/>
       <c r="E354" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F354" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G354" s="30" t="s">
         <v>15</v>
@@ -13863,15 +13946,15 @@
       </c>
       <c r="I354" s="32"/>
     </row>
-    <row r="355" spans="1:9" ht="135">
+    <row r="355" spans="1:9" ht="195">
       <c r="A355" s="30" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B355" s="31" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C355" s="32" t="s">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="D355" s="30"/>
       <c r="E355" s="30" t="s">
@@ -13888,15 +13971,15 @@
       </c>
       <c r="I355" s="32"/>
     </row>
-    <row r="356" spans="1:9" ht="105">
+    <row r="356" spans="1:9" ht="45">
       <c r="A356" s="30" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B356" s="31" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C356" s="32" t="s">
-        <v>842</v>
+        <v>804</v>
       </c>
       <c r="D356" s="30"/>
       <c r="E356" s="30" t="s">
@@ -13909,19 +13992,19 @@
         <v>15</v>
       </c>
       <c r="H356" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I356" s="32"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="30" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B357" s="31" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C357" s="32" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
       <c r="D357" s="30"/>
       <c r="E357" s="30" t="s">
@@ -13934,21 +14017,19 @@
         <v>15</v>
       </c>
       <c r="H357" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I357" s="32" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" ht="30">
+        <v>20</v>
+      </c>
+      <c r="I357" s="32"/>
+    </row>
+    <row r="358" spans="1:9" ht="330">
       <c r="A358" s="30" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B358" s="31" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C358" s="32" t="s">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="D358" s="30"/>
       <c r="E358" s="30" t="s">
@@ -13961,19 +14042,19 @@
         <v>15</v>
       </c>
       <c r="H358" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I358" s="32"/>
     </row>
-    <row r="359" spans="1:9" ht="120">
+    <row r="359" spans="1:9" ht="135">
       <c r="A359" s="30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B359" s="31" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C359" s="32" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
       <c r="D359" s="30"/>
       <c r="E359" s="30" t="s">
@@ -13990,15 +14071,15 @@
       </c>
       <c r="I359" s="32"/>
     </row>
-    <row r="360" spans="1:9" ht="135">
+    <row r="360" spans="1:9" ht="105">
       <c r="A360" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B360" s="31" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C360" s="32" t="s">
-        <v>846</v>
+        <v>808</v>
       </c>
       <c r="D360" s="30"/>
       <c r="E360" s="30" t="s">
@@ -14015,15 +14096,15 @@
       </c>
       <c r="I360" s="32"/>
     </row>
-    <row r="361" spans="1:9" ht="105">
+    <row r="361" spans="1:9" ht="45">
       <c r="A361" s="30" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B361" s="31" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C361" s="32" t="s">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="D361" s="30"/>
       <c r="E361" s="30" t="s">
@@ -14036,44 +14117,46 @@
         <v>15</v>
       </c>
       <c r="H361" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I361" s="32"/>
-    </row>
-    <row r="362" spans="1:9" ht="165">
+        <v>17</v>
+      </c>
+      <c r="I361" s="32" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="30" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B362" s="31" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C362" s="32" t="s">
-        <v>848</v>
+        <v>810</v>
       </c>
       <c r="D362" s="30"/>
       <c r="E362" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F362" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G362" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H362" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I362" s="32"/>
     </row>
-    <row r="363" spans="1:9" ht="135">
+    <row r="363" spans="1:9" ht="120">
       <c r="A363" s="30" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B363" s="31" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C363" s="32" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="D363" s="30"/>
       <c r="E363" s="30" t="s">
@@ -14090,22 +14173,22 @@
       </c>
       <c r="I363" s="32"/>
     </row>
-    <row r="364" spans="1:9" ht="120">
+    <row r="364" spans="1:9" ht="135">
       <c r="A364" s="30" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B364" s="31" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C364" s="32" t="s">
-        <v>850</v>
+        <v>812</v>
       </c>
       <c r="D364" s="30"/>
       <c r="E364" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F364" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G364" s="30" t="s">
         <v>15</v>
@@ -14115,22 +14198,22 @@
       </c>
       <c r="I364" s="32"/>
     </row>
-    <row r="365" spans="1:9" ht="180">
+    <row r="365" spans="1:9" ht="105">
       <c r="A365" s="30" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B365" s="31" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C365" s="32" t="s">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="D365" s="30"/>
       <c r="E365" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F365" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G365" s="30" t="s">
         <v>15</v>
@@ -14140,22 +14223,22 @@
       </c>
       <c r="I365" s="32"/>
     </row>
-    <row r="366" spans="1:9" ht="135">
+    <row r="366" spans="1:9" ht="165">
       <c r="A366" s="30" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B366" s="31" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C366" s="32" t="s">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="D366" s="30"/>
       <c r="E366" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F366" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G366" s="30" t="s">
         <v>15</v>
@@ -14165,15 +14248,15 @@
       </c>
       <c r="I366" s="32"/>
     </row>
-    <row r="367" spans="1:9" ht="30">
+    <row r="367" spans="1:9" ht="135">
       <c r="A367" s="30" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B367" s="31" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C367" s="32" t="s">
-        <v>853</v>
+        <v>815</v>
       </c>
       <c r="D367" s="30"/>
       <c r="E367" s="30" t="s">
@@ -14186,26 +14269,26 @@
         <v>15</v>
       </c>
       <c r="H367" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I367" s="32"/>
     </row>
-    <row r="368" spans="1:9" ht="150">
+    <row r="368" spans="1:9" ht="120">
       <c r="A368" s="30" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B368" s="31" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C368" s="32" t="s">
-        <v>854</v>
+        <v>816</v>
       </c>
       <c r="D368" s="30"/>
       <c r="E368" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F368" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G368" s="30" t="s">
         <v>15</v>
@@ -14215,15 +14298,15 @@
       </c>
       <c r="I368" s="32"/>
     </row>
-    <row r="369" spans="1:9" ht="409.5">
+    <row r="369" spans="1:9" ht="180">
       <c r="A369" s="30" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B369" s="31" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C369" s="32" t="s">
-        <v>855</v>
+        <v>817</v>
       </c>
       <c r="D369" s="30"/>
       <c r="E369" s="30" t="s">
@@ -14240,65 +14323,65 @@
       </c>
       <c r="I369" s="32"/>
     </row>
-    <row r="370" spans="1:9" ht="30">
+    <row r="370" spans="1:9" ht="135">
       <c r="A370" s="30" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B370" s="31" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C370" s="32" t="s">
-        <v>856</v>
+        <v>818</v>
       </c>
       <c r="D370" s="30"/>
       <c r="E370" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F370" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G370" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H370" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I370" s="32"/>
     </row>
-    <row r="371" spans="1:9" ht="75">
+    <row r="371" spans="1:9" ht="30">
       <c r="A371" s="30" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B371" s="31" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C371" s="32" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="D371" s="30"/>
       <c r="E371" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F371" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G371" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H371" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I371" s="32"/>
     </row>
-    <row r="372" spans="1:9" ht="135">
+    <row r="372" spans="1:9" ht="150">
       <c r="A372" s="30" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B372" s="31" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C372" s="32" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
       <c r="D372" s="30"/>
       <c r="E372" s="30" t="s">
@@ -14315,22 +14398,22 @@
       </c>
       <c r="I372" s="32"/>
     </row>
-    <row r="373" spans="1:9" ht="135">
+    <row r="373" spans="1:9" ht="409.5">
       <c r="A373" s="30" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B373" s="31" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C373" s="32" t="s">
-        <v>859</v>
+        <v>821</v>
       </c>
       <c r="D373" s="30"/>
       <c r="E373" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F373" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G373" s="30" t="s">
         <v>15</v>
@@ -14340,41 +14423,146 @@
       </c>
       <c r="I373" s="32"/>
     </row>
-    <row r="374" spans="1:9" ht="120">
+    <row r="374" spans="1:9" ht="30">
       <c r="A374" s="30" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B374" s="31" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C374" s="32" t="s">
-        <v>860</v>
+        <v>822</v>
       </c>
       <c r="D374" s="30"/>
       <c r="E374" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F374" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G374" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H374" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I374" s="32"/>
+    </row>
+    <row r="375" spans="1:9" ht="75">
+      <c r="A375" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B375" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="C375" s="32" t="s">
+        <v>823</v>
+      </c>
+      <c r="D375" s="30"/>
+      <c r="E375" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F375" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G375" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H375" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I375" s="32"/>
+    </row>
+    <row r="376" spans="1:9" ht="135">
+      <c r="A376" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B376" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C376" s="32" t="s">
+        <v>824</v>
+      </c>
+      <c r="D376" s="30"/>
+      <c r="E376" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F376" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G374" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H374" s="30" t="s">
+      <c r="G376" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H376" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I374" s="32"/>
-    </row>
-    <row r="375" spans="1:9">
-      <c r="A375" s="3"/>
-      <c r="B375" s="10"/>
-    </row>
-    <row r="376" spans="1:9">
-      <c r="A376" s="3"/>
-      <c r="B376" s="10"/>
+      <c r="I376" s="32"/>
+    </row>
+    <row r="377" spans="1:9" ht="135">
+      <c r="A377" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B377" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C377" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="D377" s="30"/>
+      <c r="E377" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F377" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G377" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H377" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I377" s="32"/>
+    </row>
+    <row r="378" spans="1:9" ht="120">
+      <c r="A378" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B378" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="C378" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="D378" s="30"/>
+      <c r="E378" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F378" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G378" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H378" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I378" s="32"/>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" s="3"/>
+      <c r="B379" s="10"/>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" s="3"/>
+      <c r="B380" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14382,80 +14570,53 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H374 A34:I374">
-    <cfRule type="expression" dxfId="32" priority="53">
+  <conditionalFormatting sqref="A34:I111 A113:I113 I20:I111 A115:I378 A20:H378 I113:I378">
+    <cfRule type="expression" dxfId="38" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="54">
+    <cfRule type="expression" dxfId="37" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="61">
+    <cfRule type="expression" dxfId="36" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H374 A34:I374">
-    <cfRule type="expression" dxfId="29" priority="7">
+  <conditionalFormatting sqref="A34:I111 A113:I113 I20:I111 A115:I378 A20:H378 I113:I378">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F374">
-    <cfRule type="expression" dxfId="26" priority="13">
+  <conditionalFormatting sqref="F20:F378">
+    <cfRule type="expression" dxfId="32" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I374">
-    <cfRule type="expression" dxfId="24" priority="4">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I374">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F378">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E378">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G378">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H378">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14465,7 +14626,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B376 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B348:B380 C3 B19:B106 B146:B344 B108:B143 B346" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -14475,6 +14636,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -14523,32 +14699,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14568,9 +14722,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
@@ -3935,9 +3935,6 @@
     <t>[In UpdateViewHtml2] The UpdateViewHtml2 operation &lt;4&gt; is used to update details of a specified list view of the specified list, including display properties in CAML and HTML.</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] &lt;3&gt; Section 3.1.4.3.2.2: In SharePoint Foundation 2010 and SharePoint Foundation 2013, when this method is called after UpdateViewHtml2 (section 3.1.4.8) and the type of the view is HTML, the value of OpenApplicationExtension is returned as the value of the View element.</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does not append "&amp;gt;" after the View element. (SharePoint Foundation 2013 and above follow this behavior. )</t>
   </si>
   <si>
@@ -3959,7 +3956,10 @@
     <t>[In Appendix B: Product Behavior] Implementation does use a detail element instead of the Detail element in SOAP 1.2. &lt;1&gt; Section 3:  Microsoft products use a detail element instead of the Detail element in SOAP 1.2.</t>
   </si>
   <si>
-    <t>Verified by requirements: MS-VIEWSS_R8902001.</t>
+    <t>[In Appendix B: Product Behavior] Implementation does return the value of OpenApplicationExtension as the value of the View element when GetView is called after UpdateViewHtml2 (section 3.1.4.8) and the type of the view is HTML. &lt;3&gt; Section 3.1.4.3.2.2: In SharePoint Foundation 2010 and SharePoint Foundation 2013, when this method is called after UpdateViewHtml2 (section 3.1.4.8) and the type of the view is HTML, the value of OpenApplicationExtension is returned as the value of the View element. (SharePoint Server 2010 and above follow this hebavior.)</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-VIEWSS_R8902001.</t>
   </si>
 </sst>
 </file>
@@ -4231,6 +4231,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4255,55 +4270,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="27">
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4673,50 +4657,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4846,34 +4786,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
   <autoFilter ref="A19:I378"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="28">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="27">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="26">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="25">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="24">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="23">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="22">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="21">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="20">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4882,12 +4822,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="14"/>
-    <tableColumn id="2" name="Test" dataDxfId="13"/>
-    <tableColumn id="3" name="Description" dataDxfId="12"/>
+    <tableColumn id="1" name="Scope" dataDxfId="10"/>
+    <tableColumn id="2" name="Test" dataDxfId="9"/>
+    <tableColumn id="3" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5183,8 +5123,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I348" sqref="I348"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5239,127 +5179,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5372,12 +5312,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5390,12 +5330,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5408,12 +5348,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5426,60 +5366,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -7879,7 +7819,7 @@
         <v>415</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>828</v>
@@ -9411,7 +9351,7 @@
         <v>17</v>
       </c>
       <c r="I174" s="32" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="30">
@@ -13682,7 +13622,7 @@
         <v>479</v>
       </c>
       <c r="C345" s="32" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D345" s="30" t="s">
         <v>872</v>
@@ -13711,10 +13651,10 @@
         <v>479</v>
       </c>
       <c r="C346" s="32" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E346" s="30" t="s">
         <v>22</v>
@@ -13734,16 +13674,16 @@
     </row>
     <row r="347" spans="1:9" ht="45">
       <c r="A347" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B347" s="31" t="s">
         <v>479</v>
       </c>
       <c r="C347" s="32" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E347" s="30" t="s">
         <v>22</v>
@@ -13761,7 +13701,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="60">
+    <row r="348" spans="1:9" ht="105">
       <c r="A348" s="30" t="s">
         <v>366</v>
       </c>
@@ -13769,7 +13709,7 @@
         <v>479</v>
       </c>
       <c r="C348" s="32" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="D348" s="30"/>
       <c r="E348" s="30" t="s">
@@ -14558,11 +14498,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14570,35 +14505,40 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A34:I111 A113:I113 I20:I111 A115:I378 A20:H378 I113:I378">
-    <cfRule type="expression" dxfId="38" priority="53">
+  <conditionalFormatting sqref="A113:I113 A115:I378 I113:I378 A34:I111 I20:I111 A20:H378">
+    <cfRule type="expression" dxfId="7" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="54">
+    <cfRule type="expression" dxfId="6" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="61">
+    <cfRule type="expression" dxfId="5" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:I111 A113:I113 I20:I111 A115:I378 A20:H378 I113:I378">
-    <cfRule type="expression" dxfId="35" priority="7">
+  <conditionalFormatting sqref="A113:I113 A115:I378 I113:I378 A34:I111 I20:I111 A20:H378">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F378">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14626,7 +14566,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B348:B380 C3 B19:B106 B146:B344 B108:B143 B346" numberStoredAsText="1"/>
+    <ignoredError sqref="B348:B380 C3 B146:B344 B108:B143 B346 B55:B106 B19:B54" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -14636,21 +14576,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -14699,10 +14624,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14722,16 +14669,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -3944,9 +3944,6 @@
     <t>MS-VIEWSS_R8005001</t>
   </si>
   <si>
-    <t>MS-VIEWSS_R8005:I; MS-VIEWSS_R148:i</t>
-  </si>
-  <si>
     <t>Verified by requirements: MS-VIEWSS_R8014, MS-VIEWSS_R8005001.</t>
   </si>
   <si>
@@ -3960,12 +3957,15 @@
   </si>
   <si>
     <t>Verified by requirement: MS-VIEWSS_R8902001.</t>
+  </si>
+  <si>
+    <t>MS-VIEWSS_R8005:i, MS-VIEWSS_R148:i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -4231,21 +4231,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4270,55 +4255,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4657,6 +4613,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4786,34 +4786,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I378"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="22">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4822,12 +4822,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="10"/>
-    <tableColumn id="2" name="Test" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4876,7 +4876,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4909,9 +4909,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4944,6 +4961,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5123,21 +5157,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
@@ -5179,127 +5211,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5312,12 +5344,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5330,12 +5362,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5348,12 +5380,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5366,60 +5398,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -5478,7 +5510,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
@@ -5580,7 +5612,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="23" customFormat="1">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
@@ -5655,7 +5687,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -5880,7 +5912,7 @@
       </c>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9">
       <c r="A37" s="30" t="s">
         <v>60</v>
       </c>
@@ -6105,7 +6137,7 @@
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9" ht="135">
+    <row r="46" spans="1:9" ht="120">
       <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
@@ -6130,7 +6162,7 @@
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" ht="45">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="30" t="s">
         <v>70</v>
       </c>
@@ -6180,7 +6212,7 @@
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="135">
+    <row r="49" spans="1:9" ht="120">
       <c r="A49" s="30" t="s">
         <v>72</v>
       </c>
@@ -6205,7 +6237,7 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="45">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="30" t="s">
         <v>73</v>
       </c>
@@ -6330,7 +6362,7 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9">
       <c r="A55" s="30" t="s">
         <v>78</v>
       </c>
@@ -6430,7 +6462,7 @@
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" ht="135">
+    <row r="59" spans="1:9" ht="120">
       <c r="A59" s="30" t="s">
         <v>82</v>
       </c>
@@ -6455,7 +6487,7 @@
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="30" t="s">
         <v>83</v>
       </c>
@@ -6655,7 +6687,7 @@
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="45">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="30" t="s">
         <v>91</v>
       </c>
@@ -6734,7 +6766,7 @@
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9">
       <c r="A71" s="30" t="s">
         <v>94</v>
       </c>
@@ -6784,7 +6816,7 @@
       </c>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" ht="135">
+    <row r="73" spans="1:9" ht="120">
       <c r="A73" s="30" t="s">
         <v>96</v>
       </c>
@@ -6834,7 +6866,7 @@
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9" ht="60">
+    <row r="75" spans="1:9" ht="45">
       <c r="A75" s="30" t="s">
         <v>98</v>
       </c>
@@ -7059,7 +7091,7 @@
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9">
       <c r="A84" s="30" t="s">
         <v>107</v>
       </c>
@@ -7184,7 +7216,7 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9">
       <c r="A89" s="30" t="s">
         <v>112</v>
       </c>
@@ -7234,7 +7266,7 @@
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9">
       <c r="A91" s="30" t="s">
         <v>114</v>
       </c>
@@ -7284,7 +7316,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9" ht="30">
+    <row r="93" spans="1:9">
       <c r="A93" s="30" t="s">
         <v>116</v>
       </c>
@@ -7459,7 +7491,7 @@
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9">
       <c r="A100" s="30" t="s">
         <v>123</v>
       </c>
@@ -7484,7 +7516,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9">
       <c r="A101" s="30" t="s">
         <v>124</v>
       </c>
@@ -7509,7 +7541,7 @@
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="45">
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="30" t="s">
         <v>125</v>
       </c>
@@ -7584,7 +7616,7 @@
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" ht="120">
+    <row r="105" spans="1:9" ht="105">
       <c r="A105" s="30" t="s">
         <v>128</v>
       </c>
@@ -7784,7 +7816,7 @@
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="60">
+    <row r="113" spans="1:9" ht="45">
       <c r="A113" s="30" t="s">
         <v>135</v>
       </c>
@@ -7811,7 +7843,7 @@
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" ht="60">
+    <row r="114" spans="1:9" ht="45">
       <c r="A114" s="30" t="s">
         <v>136</v>
       </c>
@@ -7819,7 +7851,7 @@
         <v>415</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>828</v>
@@ -7837,10 +7869,10 @@
         <v>17</v>
       </c>
       <c r="I114" s="32" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="30">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="30" t="s">
         <v>137</v>
       </c>
@@ -7865,7 +7897,7 @@
       </c>
       <c r="I115" s="32"/>
     </row>
-    <row r="116" spans="1:9" ht="30">
+    <row r="116" spans="1:9">
       <c r="A116" s="30" t="s">
         <v>138</v>
       </c>
@@ -7940,7 +7972,7 @@
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9" ht="45">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="30" t="s">
         <v>141</v>
       </c>
@@ -7965,7 +7997,7 @@
       </c>
       <c r="I119" s="32"/>
     </row>
-    <row r="120" spans="1:9" ht="45">
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="30" t="s">
         <v>142</v>
       </c>
@@ -8040,7 +8072,7 @@
       </c>
       <c r="I122" s="32"/>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9">
       <c r="A123" s="30" t="s">
         <v>145</v>
       </c>
@@ -8290,7 +8322,7 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" ht="45">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="30" t="s">
         <v>155</v>
       </c>
@@ -8315,7 +8347,7 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9">
       <c r="A134" s="30" t="s">
         <v>156</v>
       </c>
@@ -8340,7 +8372,7 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9">
       <c r="A135" s="30" t="s">
         <v>157</v>
       </c>
@@ -8390,7 +8422,7 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9">
       <c r="A137" s="30" t="s">
         <v>159</v>
       </c>
@@ -8415,7 +8447,7 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9">
       <c r="A138" s="30" t="s">
         <v>160</v>
       </c>
@@ -8440,7 +8472,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9">
       <c r="A139" s="30" t="s">
         <v>161</v>
       </c>
@@ -8815,7 +8847,7 @@
       </c>
       <c r="I153" s="32"/>
     </row>
-    <row r="154" spans="1:9" ht="30">
+    <row r="154" spans="1:9">
       <c r="A154" s="30" t="s">
         <v>174</v>
       </c>
@@ -9148,7 +9180,7 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9">
       <c r="A167" s="30" t="s">
         <v>187</v>
       </c>
@@ -9202,7 +9234,7 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="45">
+    <row r="169" spans="1:9" ht="30">
       <c r="A169" s="30" t="s">
         <v>189</v>
       </c>
@@ -9252,7 +9284,7 @@
       </c>
       <c r="I170" s="32"/>
     </row>
-    <row r="171" spans="1:9" ht="225">
+    <row r="171" spans="1:9" ht="210">
       <c r="A171" s="30" t="s">
         <v>191</v>
       </c>
@@ -9351,7 +9383,7 @@
         <v>17</v>
       </c>
       <c r="I174" s="32" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="30">
@@ -9379,7 +9411,7 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9">
       <c r="A176" s="30" t="s">
         <v>196</v>
       </c>
@@ -9429,7 +9461,7 @@
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="30">
       <c r="A178" s="30" t="s">
         <v>198</v>
       </c>
@@ -9454,7 +9486,7 @@
       </c>
       <c r="I178" s="32"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9">
       <c r="A179" s="30" t="s">
         <v>199</v>
       </c>
@@ -9479,7 +9511,7 @@
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9">
       <c r="A180" s="30" t="s">
         <v>200</v>
       </c>
@@ -9554,7 +9586,7 @@
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9">
       <c r="A183" s="30" t="s">
         <v>203</v>
       </c>
@@ -9579,7 +9611,7 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9">
       <c r="A184" s="30" t="s">
         <v>204</v>
       </c>
@@ -9604,7 +9636,7 @@
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9">
       <c r="A185" s="30" t="s">
         <v>205</v>
       </c>
@@ -9854,7 +9886,7 @@
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="45">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="30" t="s">
         <v>215</v>
       </c>
@@ -9879,7 +9911,7 @@
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9" ht="30">
+    <row r="196" spans="1:9">
       <c r="A196" s="30" t="s">
         <v>216</v>
       </c>
@@ -9904,7 +9936,7 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9">
       <c r="A197" s="30" t="s">
         <v>217</v>
       </c>
@@ -9979,7 +10011,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9">
       <c r="A200" s="30" t="s">
         <v>220</v>
       </c>
@@ -10004,7 +10036,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9">
       <c r="A201" s="30" t="s">
         <v>221</v>
       </c>
@@ -10029,7 +10061,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="30">
+    <row r="202" spans="1:9">
       <c r="A202" s="30" t="s">
         <v>222</v>
       </c>
@@ -10054,7 +10086,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9">
       <c r="A203" s="30" t="s">
         <v>223</v>
       </c>
@@ -10179,7 +10211,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="225">
+    <row r="208" spans="1:9" ht="210">
       <c r="A208" s="30" t="s">
         <v>228</v>
       </c>
@@ -10229,7 +10261,7 @@
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="45">
+    <row r="210" spans="1:9" ht="30">
       <c r="A210" s="30" t="s">
         <v>230</v>
       </c>
@@ -10354,7 +10386,7 @@
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9">
       <c r="A215" s="30" t="s">
         <v>235</v>
       </c>
@@ -10429,7 +10461,7 @@
       </c>
       <c r="I217" s="32"/>
     </row>
-    <row r="218" spans="1:9" ht="30">
+    <row r="218" spans="1:9">
       <c r="A218" s="30" t="s">
         <v>238</v>
       </c>
@@ -10629,7 +10661,7 @@
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" ht="375">
+    <row r="226" spans="1:9" ht="360">
       <c r="A226" s="30" t="s">
         <v>246</v>
       </c>
@@ -10654,7 +10686,7 @@
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" ht="30">
+    <row r="227" spans="1:9">
       <c r="A227" s="30" t="s">
         <v>247</v>
       </c>
@@ -10679,7 +10711,7 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="45">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="30" t="s">
         <v>248</v>
       </c>
@@ -10704,7 +10736,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="45">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="30" t="s">
         <v>249</v>
       </c>
@@ -10779,7 +10811,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="45">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="30" t="s">
         <v>252</v>
       </c>
@@ -10804,7 +10836,7 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9">
       <c r="A233" s="30" t="s">
         <v>253</v>
       </c>
@@ -10829,7 +10861,7 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9" ht="30">
+    <row r="234" spans="1:9">
       <c r="A234" s="30" t="s">
         <v>254</v>
       </c>
@@ -10879,7 +10911,7 @@
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="30">
+    <row r="236" spans="1:9">
       <c r="A236" s="30" t="s">
         <v>256</v>
       </c>
@@ -10904,7 +10936,7 @@
       </c>
       <c r="I236" s="32"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9">
       <c r="A237" s="30" t="s">
         <v>257</v>
       </c>
@@ -10929,7 +10961,7 @@
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9">
       <c r="A238" s="30" t="s">
         <v>258</v>
       </c>
@@ -10954,7 +10986,7 @@
       </c>
       <c r="I238" s="32"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9">
       <c r="A239" s="30" t="s">
         <v>259</v>
       </c>
@@ -11104,7 +11136,7 @@
       </c>
       <c r="I244" s="32"/>
     </row>
-    <row r="245" spans="1:9" ht="240">
+    <row r="245" spans="1:9" ht="210">
       <c r="A245" s="30" t="s">
         <v>265</v>
       </c>
@@ -11179,7 +11211,7 @@
       </c>
       <c r="I247" s="32"/>
     </row>
-    <row r="248" spans="1:9" ht="30">
+    <row r="248" spans="1:9">
       <c r="A248" s="30" t="s">
         <v>268</v>
       </c>
@@ -11254,7 +11286,7 @@
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="45">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="30" t="s">
         <v>271</v>
       </c>
@@ -11279,7 +11311,7 @@
       </c>
       <c r="I251" s="32"/>
     </row>
-    <row r="252" spans="1:9" ht="30">
+    <row r="252" spans="1:9">
       <c r="A252" s="30" t="s">
         <v>272</v>
       </c>
@@ -11304,7 +11336,7 @@
       </c>
       <c r="I252" s="32"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9">
       <c r="A253" s="30" t="s">
         <v>273</v>
       </c>
@@ -11354,7 +11386,7 @@
       </c>
       <c r="I254" s="32"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9">
       <c r="A255" s="30" t="s">
         <v>275</v>
       </c>
@@ -11379,7 +11411,7 @@
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9">
       <c r="A256" s="30" t="s">
         <v>276</v>
       </c>
@@ -11404,7 +11436,7 @@
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9">
       <c r="A257" s="30" t="s">
         <v>277</v>
       </c>
@@ -11429,7 +11461,7 @@
       </c>
       <c r="I257" s="32"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9">
       <c r="A258" s="30" t="s">
         <v>278</v>
       </c>
@@ -11729,7 +11761,7 @@
       </c>
       <c r="I269" s="32"/>
     </row>
-    <row r="270" spans="1:9" ht="240">
+    <row r="270" spans="1:9" ht="210">
       <c r="A270" s="30" t="s">
         <v>290</v>
       </c>
@@ -11879,7 +11911,7 @@
       </c>
       <c r="I275" s="32"/>
     </row>
-    <row r="276" spans="1:9" ht="45">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="30" t="s">
         <v>296</v>
       </c>
@@ -11933,7 +11965,7 @@
       </c>
       <c r="I277" s="32"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9">
       <c r="A278" s="30" t="s">
         <v>298</v>
       </c>
@@ -12008,7 +12040,7 @@
       </c>
       <c r="I280" s="32"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9">
       <c r="A281" s="30" t="s">
         <v>301</v>
       </c>
@@ -12083,7 +12115,7 @@
       </c>
       <c r="I283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="30">
+    <row r="284" spans="1:9">
       <c r="A284" s="30" t="s">
         <v>304</v>
       </c>
@@ -12158,7 +12190,7 @@
       </c>
       <c r="I286" s="32"/>
     </row>
-    <row r="287" spans="1:9" ht="45">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="30" t="s">
         <v>307</v>
       </c>
@@ -12208,7 +12240,7 @@
       </c>
       <c r="I288" s="32"/>
     </row>
-    <row r="289" spans="1:9" ht="240">
+    <row r="289" spans="1:9" ht="210">
       <c r="A289" s="30" t="s">
         <v>309</v>
       </c>
@@ -12283,7 +12315,7 @@
       </c>
       <c r="I291" s="32"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="30" t="s">
         <v>312</v>
       </c>
@@ -12360,7 +12392,7 @@
       </c>
       <c r="I294" s="32"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9">
       <c r="A295" s="30" t="s">
         <v>315</v>
       </c>
@@ -12435,7 +12467,7 @@
       </c>
       <c r="I297" s="32"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9">
       <c r="A298" s="30" t="s">
         <v>318</v>
       </c>
@@ -12935,7 +12967,7 @@
       </c>
       <c r="I317" s="32"/>
     </row>
-    <row r="318" spans="1:9" ht="30">
+    <row r="318" spans="1:9">
       <c r="A318" s="30" t="s">
         <v>338</v>
       </c>
@@ -13010,7 +13042,7 @@
       </c>
       <c r="I320" s="32"/>
     </row>
-    <row r="321" spans="1:9" ht="135">
+    <row r="321" spans="1:9" ht="120">
       <c r="A321" s="30" t="s">
         <v>341</v>
       </c>
@@ -13035,7 +13067,7 @@
       </c>
       <c r="I321" s="32"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9">
       <c r="A322" s="30" t="s">
         <v>342</v>
       </c>
@@ -13085,7 +13117,7 @@
       </c>
       <c r="I323" s="32"/>
     </row>
-    <row r="324" spans="1:9" ht="240">
+    <row r="324" spans="1:9" ht="225">
       <c r="A324" s="30" t="s">
         <v>344</v>
       </c>
@@ -13110,7 +13142,7 @@
       </c>
       <c r="I324" s="32"/>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9">
       <c r="A325" s="30" t="s">
         <v>345</v>
       </c>
@@ -13160,7 +13192,7 @@
       </c>
       <c r="I326" s="32"/>
     </row>
-    <row r="327" spans="1:9" ht="240">
+    <row r="327" spans="1:9" ht="225">
       <c r="A327" s="30" t="s">
         <v>347</v>
       </c>
@@ -13185,7 +13217,7 @@
       </c>
       <c r="I327" s="32"/>
     </row>
-    <row r="328" spans="1:9" ht="30">
+    <row r="328" spans="1:9">
       <c r="A328" s="30" t="s">
         <v>348</v>
       </c>
@@ -13235,7 +13267,7 @@
       </c>
       <c r="I329" s="32"/>
     </row>
-    <row r="330" spans="1:9" ht="240">
+    <row r="330" spans="1:9" ht="225">
       <c r="A330" s="30" t="s">
         <v>350</v>
       </c>
@@ -13260,7 +13292,7 @@
       </c>
       <c r="I330" s="32"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9">
       <c r="A331" s="30" t="s">
         <v>351</v>
       </c>
@@ -13310,7 +13342,7 @@
       </c>
       <c r="I332" s="32"/>
     </row>
-    <row r="333" spans="1:9" ht="240">
+    <row r="333" spans="1:9" ht="225">
       <c r="A333" s="30" t="s">
         <v>353</v>
       </c>
@@ -13335,7 +13367,7 @@
       </c>
       <c r="I333" s="32"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9">
       <c r="A334" s="30" t="s">
         <v>354</v>
       </c>
@@ -13360,7 +13392,7 @@
       </c>
       <c r="I334" s="32"/>
     </row>
-    <row r="335" spans="1:9" ht="60">
+    <row r="335" spans="1:9" ht="45">
       <c r="A335" s="30" t="s">
         <v>355</v>
       </c>
@@ -13385,7 +13417,7 @@
       </c>
       <c r="I335" s="32"/>
     </row>
-    <row r="336" spans="1:9" ht="240">
+    <row r="336" spans="1:9" ht="225">
       <c r="A336" s="30" t="s">
         <v>356</v>
       </c>
@@ -13460,7 +13492,7 @@
       </c>
       <c r="I338" s="32"/>
     </row>
-    <row r="339" spans="1:9" ht="240">
+    <row r="339" spans="1:9" ht="210">
       <c r="A339" s="30" t="s">
         <v>359</v>
       </c>
@@ -13622,7 +13654,7 @@
         <v>479</v>
       </c>
       <c r="C345" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D345" s="30" t="s">
         <v>872</v>
@@ -13653,8 +13685,8 @@
       <c r="C346" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="D346" s="30" t="s">
-        <v>883</v>
+      <c r="D346" s="22" t="s">
+        <v>888</v>
       </c>
       <c r="E346" s="30" t="s">
         <v>22</v>
@@ -13682,8 +13714,8 @@
       <c r="C347" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="D347" s="30" t="s">
-        <v>883</v>
+      <c r="D347" s="22" t="s">
+        <v>888</v>
       </c>
       <c r="E347" s="30" t="s">
         <v>22</v>
@@ -13701,7 +13733,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="105">
+    <row r="348" spans="1:9" ht="90">
       <c r="A348" s="30" t="s">
         <v>366</v>
       </c>
@@ -13709,7 +13741,7 @@
         <v>479</v>
       </c>
       <c r="C348" s="32" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D348" s="30"/>
       <c r="E348" s="30" t="s">
@@ -13726,7 +13758,7 @@
       </c>
       <c r="I348" s="32"/>
     </row>
-    <row r="349" spans="1:9" ht="45">
+    <row r="349" spans="1:9" ht="30">
       <c r="A349" s="30" t="s">
         <v>367</v>
       </c>
@@ -13886,7 +13918,7 @@
       </c>
       <c r="I354" s="32"/>
     </row>
-    <row r="355" spans="1:9" ht="195">
+    <row r="355" spans="1:9" ht="135">
       <c r="A355" s="30" t="s">
         <v>373</v>
       </c>
@@ -13911,7 +13943,7 @@
       </c>
       <c r="I355" s="32"/>
     </row>
-    <row r="356" spans="1:9" ht="45">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="30" t="s">
         <v>374</v>
       </c>
@@ -14088,7 +14120,7 @@
       </c>
       <c r="I362" s="32"/>
     </row>
-    <row r="363" spans="1:9" ht="120">
+    <row r="363" spans="1:9" ht="105">
       <c r="A363" s="30" t="s">
         <v>381</v>
       </c>
@@ -14163,7 +14195,7 @@
       </c>
       <c r="I365" s="32"/>
     </row>
-    <row r="366" spans="1:9" ht="165">
+    <row r="366" spans="1:9" ht="135">
       <c r="A366" s="30" t="s">
         <v>384</v>
       </c>
@@ -14313,7 +14345,7 @@
       </c>
       <c r="I371" s="32"/>
     </row>
-    <row r="372" spans="1:9" ht="150">
+    <row r="372" spans="1:9" ht="135">
       <c r="A372" s="30" t="s">
         <v>390</v>
       </c>
@@ -14363,7 +14395,7 @@
       </c>
       <c r="I373" s="32"/>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9">
       <c r="A374" s="30" t="s">
         <v>392</v>
       </c>
@@ -14413,7 +14445,7 @@
       </c>
       <c r="I375" s="32"/>
     </row>
-    <row r="376" spans="1:9" ht="135">
+    <row r="376" spans="1:9" ht="120">
       <c r="A376" s="30" t="s">
         <v>394</v>
       </c>
@@ -14463,7 +14495,7 @@
       </c>
       <c r="I377" s="32"/>
     </row>
-    <row r="378" spans="1:9" ht="120">
+    <row r="378" spans="1:9" ht="105">
       <c r="A378" s="30" t="s">
         <v>396</v>
       </c>
@@ -14498,6 +14530,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14505,40 +14542,35 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A113:I113 A115:I378 I113:I378 A34:I111 I20:I111 A20:H378">
-    <cfRule type="expression" dxfId="7" priority="53">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:I113 A115:I378 I113:I378 A34:I111 I20:I111 A20:H378">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F378">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14566,7 +14598,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B348:B380 C3 B146:B344 B108:B143 B346 B55:B106 B19:B54" numberStoredAsText="1"/>
+    <ignoredError sqref="B347:B380 C3 B145:B345 B107:B144 B346 B55:B106 B19:B54" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -14625,18 +14657,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14655,6 +14687,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -14666,12 +14706,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-VIEWSS/MS-VIEWSS_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2CE80-B470-43F7-87F0-B7937258D57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp8B7C" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp8B7C" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-fenguo\AppData\Local\Temp\tmp8B7C.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1766,9 +1767,6 @@
     <t>[In Transport] Protocol server faults MUST be returned [either via HTTP status codes, as specified in [RFC2616] section 10 (Status Code Definitions), or] via SOAP faults, as specified either in [SOAP1.1] section 4.4 (SOAP Fault) or in [SOAP1.2/1] section 5.4 (SOAP Fault).</t>
   </si>
   <si>
-    <t>[[In Transport] Protocol server faults MUST be returned via HTTP status codes, as specified in [RFC2616] section 10 (Status Code Definitions)[, or via SOAP faults, as specified either in [SOAP1.1] section 4.4 (SOAP Fault) or in [SOAP1.2/1] section 5.4 (SOAP Fault).]</t>
-  </si>
-  <si>
     <t>[In Common Message Syntax] This section contains common definitions that this protocol uses.</t>
   </si>
   <si>
@@ -1788,9 +1786,6 @@
   </si>
   <si>
     <t>[In Namespaces] The prefix "soap" is associated with the namespace URI "http://schemas.xmlsoap.org/wsdl/soap/" referring to [SOAP1.1].</t>
-  </si>
-  <si>
-    <t>[In Namespaces] The prefix "soap12" is associated with the namespace URI "http://schemas.xmlsoap.org/wsdl/soap12/" referring to [SOAP1.2/1] and [SOAP1.2/2].</t>
   </si>
   <si>
     <t>[In Namespaces] The prefix "tns" is associated with the namespace URI "http://schemas.microsoft.com/sharepoint/soap/".</t>
@@ -3902,9 +3897,6 @@
     <t>[In UpdateViewAttributeGroup] The DefaultView attribute SHOULD be ignored by the protocol server if it is set to false.</t>
   </si>
   <si>
-    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4 or a Detail element &lt;1&gt; as specified in [SOAP1.2/1] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.2.</t>
-  </si>
-  <si>
     <t>MS-VIEWSS_R8902:i</t>
   </si>
   <si>
@@ -3945,10 +3937,6 @@
   </si>
   <si>
     <t>MS-VIEWSS_R8005:i, MS-VIEWSS_R148:i</t>
-  </si>
-  <si>
-    <t>6.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MS-VIEWSS_R8015</t>
@@ -3968,13 +3956,29 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-VIEWSS_R8014, MS-VIEWSS_R8005001.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[In Transport] Protocol server faults MUST be returned via HTTP status codes, as specified in [RFC2616] section 10 (Status Code Definitions)[, or via SOAP faults, as specified either in [SOAP1.1] section 4.4 (SOAP Fault) or in [SOAP1.2-1/2007] section 5.4 (SOAP Fault).]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] The prefix "soap12" is associated with the namespace URI "http://schemas.xmlsoap.org/wsdl/soap12/" referring to [SOAP1.2-1/2007] and [SOAP1.2-2/2007].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Protocol Details] This protocol allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4 or a Detail element &lt;1&gt; as specified in [SOAP1.2-1/2007] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0.0"/>
@@ -4241,21 +4245,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4280,9 +4269,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -4796,34 +4800,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I378"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I378" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I378" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4832,19 +4836,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5163,30 +5167,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -5194,9 +5198,9 @@
       <c r="F1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5205,146 +5209,146 @@
       <c r="F2" s="25"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F3" s="12">
-        <v>42627</v>
+        <v>43634</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -5354,15 +5358,15 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
@@ -5372,15 +5376,15 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -5390,15 +5394,15 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -5408,64 +5412,64 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5495,7 +5499,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -5520,7 +5524,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>44</v>
       </c>
@@ -5544,10 +5548,10 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
@@ -5572,7 +5576,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
@@ -5597,7 +5601,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>395</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>507</v>
+        <v>887</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -5622,7 +5626,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
@@ -5630,7 +5634,7 @@
         <v>396</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -5647,7 +5651,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>396</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -5672,7 +5676,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -5680,7 +5684,7 @@
         <v>397</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -5697,7 +5701,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="58" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>397</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -5722,7 +5726,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>52</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>397</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -5747,7 +5751,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>53</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>397</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -5772,7 +5776,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>397</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -5797,7 +5801,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
@@ -5805,7 +5809,7 @@
         <v>397</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>515</v>
+        <v>888</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -5822,7 +5826,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>56</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>397</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -5847,7 +5851,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
         <v>57</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>397</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29" t="s">
@@ -5872,7 +5876,7 @@
       </c>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>58</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>397</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29" t="s">
@@ -5897,7 +5901,7 @@
       </c>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>59</v>
       </c>
@@ -5905,7 +5909,7 @@
         <v>398</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29" t="s">
@@ -5922,7 +5926,7 @@
       </c>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>60</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>398</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29" t="s">
@@ -5947,7 +5951,7 @@
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
         <v>61</v>
       </c>
@@ -5955,7 +5959,7 @@
         <v>398</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29" t="s">
@@ -5972,7 +5976,7 @@
       </c>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
         <v>62</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>398</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
@@ -5997,7 +6001,7 @@
       </c>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>63</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>398</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29" t="s">
@@ -6022,7 +6026,7 @@
       </c>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>64</v>
       </c>
@@ -6030,7 +6034,7 @@
         <v>398</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29" t="s">
@@ -6047,7 +6051,7 @@
       </c>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>65</v>
       </c>
@@ -6055,7 +6059,7 @@
         <v>398</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29" t="s">
@@ -6072,7 +6076,7 @@
       </c>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>66</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>398</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
@@ -6097,7 +6101,7 @@
       </c>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
         <v>67</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>398</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29" t="s">
@@ -6122,7 +6126,7 @@
       </c>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>68</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>399</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29" t="s">
@@ -6147,7 +6151,7 @@
       </c>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
         <v>69</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>399</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29" t="s">
@@ -6172,7 +6176,7 @@
       </c>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="29" t="s">
         <v>70</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>399</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29" t="s">
@@ -6197,7 +6201,7 @@
       </c>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="29" t="s">
         <v>71</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>400</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29" t="s">
@@ -6222,7 +6226,7 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
         <v>72</v>
       </c>
@@ -6230,7 +6234,7 @@
         <v>400</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29" t="s">
@@ -6247,7 +6251,7 @@
       </c>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="29" t="s">
         <v>73</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>400</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="29" t="s">
@@ -6272,7 +6276,7 @@
       </c>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>74</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>401</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29" t="s">
@@ -6297,7 +6301,7 @@
       </c>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>75</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>401</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29" t="s">
@@ -6322,7 +6326,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="29" t="s">
         <v>76</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>401</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29" t="s">
@@ -6347,7 +6351,7 @@
       </c>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="29" t="s">
         <v>77</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>401</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="29" t="s">
@@ -6372,7 +6376,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
         <v>78</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>402</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29" t="s">
@@ -6397,7 +6401,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
         <v>79</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>402</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29" t="s">
@@ -6422,7 +6426,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>80</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>402</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29" t="s">
@@ -6447,7 +6451,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
         <v>81</v>
       </c>
@@ -6455,7 +6459,7 @@
         <v>403</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29" t="s">
@@ -6472,7 +6476,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
         <v>82</v>
       </c>
@@ -6480,7 +6484,7 @@
         <v>403</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="29" t="s">
@@ -6497,7 +6501,7 @@
       </c>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="29" t="s">
         <v>83</v>
       </c>
@@ -6505,7 +6509,7 @@
         <v>403</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29" t="s">
@@ -6522,7 +6526,7 @@
       </c>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
         <v>84</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>404</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="29" t="s">
@@ -6547,7 +6551,7 @@
       </c>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A62" s="29" t="s">
         <v>85</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>404</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="29" t="s">
@@ -6572,7 +6576,7 @@
       </c>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="29" t="s">
         <v>86</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>404</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -6597,7 +6601,7 @@
       </c>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="29" t="s">
         <v>87</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>405</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="29" t="s">
@@ -6622,7 +6626,7 @@
       </c>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
         <v>88</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>405</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -6647,7 +6651,7 @@
       </c>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="29" t="s">
         <v>89</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v>405</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
@@ -6672,7 +6676,7 @@
       </c>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
         <v>90</v>
       </c>
@@ -6680,7 +6684,7 @@
         <v>405</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
@@ -6697,7 +6701,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="29" t="s">
         <v>91</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
@@ -6722,7 +6726,7 @@
       </c>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
         <v>92</v>
       </c>
@@ -6730,10 +6734,10 @@
         <v>405</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>19</v>
@@ -6749,7 +6753,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="29" t="s">
         <v>93</v>
       </c>
@@ -6757,10 +6761,10 @@
         <v>405</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>19</v>
@@ -6776,7 +6780,7 @@
       </c>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
         <v>94</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>405</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
@@ -6801,7 +6805,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="29" t="s">
         <v>95</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>406</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29" t="s">
@@ -6826,7 +6830,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
         <v>96</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>406</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="29" t="s">
@@ -6851,7 +6855,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="29" t="s">
         <v>97</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>406</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29" t="s">
@@ -6876,7 +6880,7 @@
       </c>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="29" t="s">
         <v>98</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>407</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29" t="s">
@@ -6901,7 +6905,7 @@
       </c>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="29" t="s">
         <v>99</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>407</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29" t="s">
@@ -6926,7 +6930,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
         <v>100</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>407</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="29" t="s">
@@ -6951,7 +6955,7 @@
       </c>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="29" t="s">
         <v>101</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>407</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29" t="s">
@@ -6976,7 +6980,7 @@
       </c>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="29" t="s">
         <v>102</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>31</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="29" t="s">
@@ -7001,7 +7005,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A80" s="29" t="s">
         <v>103</v>
       </c>
@@ -7009,7 +7013,7 @@
         <v>31</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29" t="s">
@@ -7026,7 +7030,7 @@
       </c>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="29" t="s">
         <v>104</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>31</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29" t="s">
@@ -7051,7 +7055,7 @@
       </c>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="29" t="s">
         <v>105</v>
       </c>
@@ -7059,7 +7063,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29" t="s">
@@ -7076,7 +7080,7 @@
       </c>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
         <v>106</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29" t="s">
@@ -7101,7 +7105,7 @@
       </c>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
         <v>107</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>31</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29" t="s">
@@ -7126,7 +7130,7 @@
       </c>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
         <v>108</v>
       </c>
@@ -7134,7 +7138,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="29" t="s">
@@ -7151,7 +7155,7 @@
       </c>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="29" t="s">
         <v>109</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="29" t="s">
@@ -7176,7 +7180,7 @@
       </c>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="29" t="s">
         <v>110</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="29" t="s">
@@ -7201,7 +7205,7 @@
       </c>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>111</v>
       </c>
@@ -7209,7 +7213,7 @@
         <v>31</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="29" t="s">
@@ -7226,7 +7230,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="29" t="s">
         <v>112</v>
       </c>
@@ -7234,7 +7238,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29" t="s">
@@ -7251,7 +7255,7 @@
       </c>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>113</v>
       </c>
@@ -7259,7 +7263,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29" t="s">
@@ -7276,7 +7280,7 @@
       </c>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="29" t="s">
         <v>114</v>
       </c>
@@ -7284,7 +7288,7 @@
         <v>408</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29" t="s">
@@ -7301,7 +7305,7 @@
       </c>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A92" s="29" t="s">
         <v>115</v>
       </c>
@@ -7309,7 +7313,7 @@
         <v>408</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29" t="s">
@@ -7326,7 +7330,7 @@
       </c>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
         <v>116</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>408</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29" t="s">
@@ -7351,7 +7355,7 @@
       </c>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
         <v>117</v>
       </c>
@@ -7359,7 +7363,7 @@
         <v>408</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29" t="s">
@@ -7376,7 +7380,7 @@
       </c>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="29" t="s">
         <v>118</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>409</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29" t="s">
@@ -7401,7 +7405,7 @@
       </c>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A96" s="29" t="s">
         <v>119</v>
       </c>
@@ -7409,7 +7413,7 @@
         <v>409</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D96" s="29"/>
       <c r="E96" s="29" t="s">
@@ -7426,7 +7430,7 @@
       </c>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="29" t="s">
         <v>120</v>
       </c>
@@ -7434,7 +7438,7 @@
         <v>409</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="29" t="s">
@@ -7451,7 +7455,7 @@
       </c>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="29" t="s">
         <v>121</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>410</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D98" s="29"/>
       <c r="E98" s="29" t="s">
@@ -7476,7 +7480,7 @@
       </c>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="29" t="s">
         <v>122</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>410</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="29" t="s">
@@ -7501,7 +7505,7 @@
       </c>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="29" t="s">
         <v>123</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>410</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D100" s="29"/>
       <c r="E100" s="29" t="s">
@@ -7526,7 +7530,7 @@
       </c>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
         <v>124</v>
       </c>
@@ -7534,7 +7538,7 @@
         <v>411</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29" t="s">
@@ -7551,7 +7555,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="29" t="s">
         <v>125</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>411</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29" t="s">
@@ -7576,7 +7580,7 @@
       </c>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="29" t="s">
         <v>126</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>412</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="29" t="s">
@@ -7601,7 +7605,7 @@
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="29" t="s">
         <v>127</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>412</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29" t="s">
@@ -7626,7 +7630,7 @@
       </c>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A105" s="29" t="s">
         <v>128</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>412</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="29" t="s">
@@ -7651,7 +7655,7 @@
       </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="29" t="s">
         <v>129</v>
       </c>
@@ -7659,7 +7663,7 @@
         <v>412</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29" t="s">
@@ -7676,15 +7680,15 @@
       </c>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="29" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>412</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29" t="s">
@@ -7701,7 +7705,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="29" t="s">
         <v>130</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>413</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="29" t="s">
@@ -7726,7 +7730,7 @@
       </c>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="29" t="s">
         <v>131</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>413</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
@@ -7751,7 +7755,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A110" s="29" t="s">
         <v>132</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>413</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29" t="s">
@@ -7776,7 +7780,7 @@
       </c>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="29" t="s">
         <v>133</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>413</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29" t="s">
@@ -7801,15 +7805,15 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C112" s="31" t="s">
-        <v>869</v>
+      <c r="C112" s="20" t="s">
+        <v>889</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="29" t="s">
@@ -7826,7 +7830,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="29" t="s">
         <v>135</v>
       </c>
@@ -7834,10 +7838,10 @@
         <v>413</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>19</v>
@@ -7853,18 +7857,18 @@
       </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="22" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>413</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E114" s="29" t="s">
         <v>19</v>
@@ -7879,10 +7883,10 @@
         <v>17</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="29" t="s">
         <v>136</v>
       </c>
@@ -7890,7 +7894,7 @@
         <v>413</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -7907,7 +7911,7 @@
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="29" t="s">
         <v>137</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>413</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="29" t="s">
@@ -7932,7 +7936,7 @@
       </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="29" t="s">
         <v>138</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>413</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29" t="s">
@@ -7957,7 +7961,7 @@
       </c>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="29" t="s">
         <v>139</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>414</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="29" t="s">
@@ -7982,7 +7986,7 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="29" t="s">
         <v>140</v>
       </c>
@@ -7990,7 +7994,7 @@
         <v>414</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="29" t="s">
@@ -8007,7 +8011,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="29" t="s">
         <v>141</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>414</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="29" t="s">
@@ -8032,7 +8036,7 @@
       </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="29" t="s">
         <v>142</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>415</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="29" t="s">
@@ -8057,7 +8061,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="29" t="s">
         <v>143</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>415</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="29" t="s">
@@ -8082,7 +8086,7 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="29" t="s">
         <v>144</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>415</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D123" s="29"/>
       <c r="E123" s="29" t="s">
@@ -8107,7 +8111,7 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="29" t="s">
         <v>145</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>415</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="29" t="s">
@@ -8132,7 +8136,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="29" t="s">
         <v>146</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>415</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="29" t="s">
@@ -8157,7 +8161,7 @@
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="29" t="s">
         <v>147</v>
       </c>
@@ -8165,7 +8169,7 @@
         <v>415</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="29" t="s">
@@ -8182,7 +8186,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="29" t="s">
         <v>148</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>415</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29" t="s">
@@ -8207,7 +8211,7 @@
       </c>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="29" t="s">
         <v>149</v>
       </c>
@@ -8215,7 +8219,7 @@
         <v>415</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29" t="s">
@@ -8232,7 +8236,7 @@
       </c>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="29" t="s">
         <v>150</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>415</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="29" t="s">
@@ -8257,7 +8261,7 @@
       </c>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="29" t="s">
         <v>151</v>
       </c>
@@ -8265,7 +8269,7 @@
         <v>415</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="29" t="s">
@@ -8282,7 +8286,7 @@
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="29" t="s">
         <v>152</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>32</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -8307,7 +8311,7 @@
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="29" t="s">
         <v>153</v>
       </c>
@@ -8315,7 +8319,7 @@
         <v>32</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="29" t="s">
@@ -8332,7 +8336,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
         <v>154</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>32</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="29" t="s">
@@ -8357,7 +8361,7 @@
       </c>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="29" t="s">
         <v>155</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>416</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29" t="s">
@@ -8382,7 +8386,7 @@
       </c>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="29" t="s">
         <v>156</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>417</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D135" s="29"/>
       <c r="E135" s="29" t="s">
@@ -8407,7 +8411,7 @@
       </c>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="29" t="s">
         <v>157</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>417</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="29" t="s">
@@ -8432,7 +8436,7 @@
       </c>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
         <v>158</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>418</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D137" s="29"/>
       <c r="E137" s="29" t="s">
@@ -8457,7 +8461,7 @@
       </c>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="29" t="s">
         <v>159</v>
       </c>
@@ -8465,7 +8469,7 @@
         <v>418</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="29" t="s">
@@ -8482,7 +8486,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="29" t="s">
         <v>160</v>
       </c>
@@ -8490,7 +8494,7 @@
         <v>419</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29" t="s">
@@ -8507,7 +8511,7 @@
       </c>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="29" t="s">
         <v>161</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>420</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="29" t="s">
@@ -8532,7 +8536,7 @@
       </c>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A141" s="29" t="s">
         <v>162</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>420</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="29" t="s">
@@ -8557,7 +8561,7 @@
       </c>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="29" t="s">
         <v>163</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>420</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D142" s="29"/>
       <c r="E142" s="29" t="s">
@@ -8582,7 +8586,7 @@
       </c>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="29" t="s">
         <v>164</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>420</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -8607,15 +8611,15 @@
       </c>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="29" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>420</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29" t="s">
@@ -8632,15 +8636,15 @@
       </c>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="29" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>420</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D145" s="29"/>
       <c r="E145" s="29" t="s">
@@ -8657,7 +8661,7 @@
       </c>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="29" t="s">
         <v>165</v>
       </c>
@@ -8665,7 +8669,7 @@
         <v>420</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29" t="s">
@@ -8682,7 +8686,7 @@
       </c>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="29" t="s">
         <v>166</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>420</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29" t="s">
@@ -8707,7 +8711,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="29" t="s">
         <v>167</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>420</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -8732,7 +8736,7 @@
       </c>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="29" t="s">
         <v>168</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>420</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
@@ -8757,7 +8761,7 @@
       </c>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="29" t="s">
         <v>169</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>420</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
@@ -8782,7 +8786,7 @@
       </c>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="29" t="s">
         <v>170</v>
       </c>
@@ -8790,7 +8794,7 @@
         <v>420</v>
       </c>
       <c r="C151" s="31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29" t="s">
@@ -8807,7 +8811,7 @@
       </c>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="29" t="s">
         <v>171</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>420</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="29" t="s">
@@ -8832,7 +8836,7 @@
       </c>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="29" t="s">
         <v>172</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>420</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
@@ -8857,7 +8861,7 @@
       </c>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="29" t="s">
         <v>173</v>
       </c>
@@ -8865,10 +8869,10 @@
         <v>420</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D154" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E154" s="29" t="s">
         <v>19</v>
@@ -8884,7 +8888,7 @@
       </c>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="29" t="s">
         <v>174</v>
       </c>
@@ -8892,10 +8896,10 @@
         <v>420</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E155" s="29" t="s">
         <v>19</v>
@@ -8911,7 +8915,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="29" t="s">
         <v>175</v>
       </c>
@@ -8919,10 +8923,10 @@
         <v>420</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D156" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E156" s="29" t="s">
         <v>19</v>
@@ -8938,7 +8942,7 @@
       </c>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="29" t="s">
         <v>176</v>
       </c>
@@ -8946,10 +8950,10 @@
         <v>420</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D157" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E157" s="29" t="s">
         <v>19</v>
@@ -8965,7 +8969,7 @@
       </c>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="29" t="s">
         <v>177</v>
       </c>
@@ -8973,7 +8977,7 @@
         <v>420</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="29" t="s">
@@ -8990,7 +8994,7 @@
       </c>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="29" t="s">
         <v>178</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>420</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
@@ -9015,7 +9019,7 @@
       </c>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="29" t="s">
         <v>179</v>
       </c>
@@ -9023,7 +9027,7 @@
         <v>420</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
@@ -9040,7 +9044,7 @@
       </c>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="29" t="s">
         <v>180</v>
       </c>
@@ -9048,7 +9052,7 @@
         <v>421</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29" t="s">
@@ -9065,7 +9069,7 @@
       </c>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="29" t="s">
         <v>181</v>
       </c>
@@ -9073,7 +9077,7 @@
         <v>421</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29" t="s">
@@ -9090,7 +9094,7 @@
       </c>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="29" t="s">
         <v>182</v>
       </c>
@@ -9098,7 +9102,7 @@
         <v>421</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29" t="s">
@@ -9115,7 +9119,7 @@
       </c>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="29" t="s">
         <v>183</v>
       </c>
@@ -9123,7 +9127,7 @@
         <v>421</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29" t="s">
@@ -9140,7 +9144,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
         <v>184</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>421</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29" t="s">
@@ -9165,7 +9169,7 @@
       </c>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="29" t="s">
         <v>185</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>421</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="29" t="s">
@@ -9190,7 +9194,7 @@
       </c>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="29" t="s">
         <v>186</v>
       </c>
@@ -9198,10 +9202,10 @@
         <v>421</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D167" s="29" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E167" s="29" t="s">
         <v>19</v>
@@ -9217,7 +9221,7 @@
       </c>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="29" t="s">
         <v>187</v>
       </c>
@@ -9225,10 +9229,10 @@
         <v>421</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E168" s="29" t="s">
         <v>19</v>
@@ -9244,7 +9248,7 @@
       </c>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="29" t="s">
         <v>188</v>
       </c>
@@ -9252,7 +9256,7 @@
         <v>421</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="29" t="s">
@@ -9269,7 +9273,7 @@
       </c>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="29" t="s">
         <v>189</v>
       </c>
@@ -9277,7 +9281,7 @@
         <v>422</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="29" t="s">
@@ -9294,7 +9298,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A171" s="29" t="s">
         <v>190</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>422</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D171" s="29"/>
       <c r="E171" s="29" t="s">
@@ -9319,7 +9323,7 @@
       </c>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="29" t="s">
         <v>191</v>
       </c>
@@ -9327,7 +9331,7 @@
         <v>422</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="29" t="s">
@@ -9344,7 +9348,7 @@
       </c>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="29" t="s">
         <v>192</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>422</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="29" t="s">
@@ -9369,7 +9373,7 @@
       </c>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="29" t="s">
         <v>193</v>
       </c>
@@ -9377,7 +9381,7 @@
         <v>422</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="29" t="s">
@@ -9393,10 +9397,10 @@
         <v>17</v>
       </c>
       <c r="I174" s="20" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="29" t="s">
         <v>194</v>
       </c>
@@ -9404,7 +9408,7 @@
         <v>422</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="29" t="s">
@@ -9421,7 +9425,7 @@
       </c>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="29" t="s">
         <v>195</v>
       </c>
@@ -9429,7 +9433,7 @@
         <v>33</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="29" t="s">
@@ -9446,7 +9450,7 @@
       </c>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A177" s="29" t="s">
         <v>196</v>
       </c>
@@ -9454,7 +9458,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="29" t="s">
@@ -9471,7 +9475,7 @@
       </c>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="29" t="s">
         <v>197</v>
       </c>
@@ -9479,7 +9483,7 @@
         <v>33</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="29" t="s">
@@ -9496,7 +9500,7 @@
       </c>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="29" t="s">
         <v>198</v>
       </c>
@@ -9504,7 +9508,7 @@
         <v>423</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D179" s="29"/>
       <c r="E179" s="29" t="s">
@@ -9521,7 +9525,7 @@
       </c>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="29" t="s">
         <v>199</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>424</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="29" t="s">
@@ -9546,7 +9550,7 @@
       </c>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="29" t="s">
         <v>200</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>424</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="29" t="s">
@@ -9571,7 +9575,7 @@
       </c>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="29" t="s">
         <v>201</v>
       </c>
@@ -9579,7 +9583,7 @@
         <v>424</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="29" t="s">
@@ -9596,7 +9600,7 @@
       </c>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="29" t="s">
         <v>202</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>425</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29" t="s">
@@ -9621,7 +9625,7 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="29" t="s">
         <v>203</v>
       </c>
@@ -9629,7 +9633,7 @@
         <v>425</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="29" t="s">
@@ -9646,7 +9650,7 @@
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="29" t="s">
         <v>204</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>426</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29" t="s">
@@ -9671,7 +9675,7 @@
       </c>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="29" t="s">
         <v>205</v>
       </c>
@@ -9679,7 +9683,7 @@
         <v>427</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="29" t="s">
@@ -9696,7 +9700,7 @@
       </c>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A187" s="29" t="s">
         <v>206</v>
       </c>
@@ -9704,7 +9708,7 @@
         <v>427</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="29" t="s">
@@ -9721,7 +9725,7 @@
       </c>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="29" t="s">
         <v>207</v>
       </c>
@@ -9729,7 +9733,7 @@
         <v>427</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29" t="s">
@@ -9746,7 +9750,7 @@
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="29" t="s">
         <v>208</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>427</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29" t="s">
@@ -9771,7 +9775,7 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="29" t="s">
         <v>209</v>
       </c>
@@ -9779,7 +9783,7 @@
         <v>428</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D190" s="29"/>
       <c r="E190" s="29" t="s">
@@ -9796,7 +9800,7 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="29" t="s">
         <v>210</v>
       </c>
@@ -9804,7 +9808,7 @@
         <v>428</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29" t="s">
@@ -9821,7 +9825,7 @@
       </c>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A192" s="29" t="s">
         <v>211</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>428</v>
       </c>
       <c r="C192" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D192" s="29"/>
       <c r="E192" s="29" t="s">
@@ -9846,7 +9850,7 @@
       </c>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="29" t="s">
         <v>212</v>
       </c>
@@ -9854,7 +9858,7 @@
         <v>429</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D193" s="29"/>
       <c r="E193" s="29" t="s">
@@ -9871,7 +9875,7 @@
       </c>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A194" s="29" t="s">
         <v>213</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>429</v>
       </c>
       <c r="C194" s="31" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
@@ -9896,7 +9900,7 @@
       </c>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="29" t="s">
         <v>214</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>429</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -9921,7 +9925,7 @@
       </c>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="29" t="s">
         <v>215</v>
       </c>
@@ -9929,7 +9933,7 @@
         <v>430</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -9946,7 +9950,7 @@
       </c>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="29" t="s">
         <v>216</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>431</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D197" s="29"/>
       <c r="E197" s="29" t="s">
@@ -9971,7 +9975,7 @@
       </c>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="29" t="s">
         <v>217</v>
       </c>
@@ -9979,7 +9983,7 @@
         <v>431</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -9996,7 +10000,7 @@
       </c>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="29" t="s">
         <v>218</v>
       </c>
@@ -10004,7 +10008,7 @@
         <v>431</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D199" s="29"/>
       <c r="E199" s="29" t="s">
@@ -10021,7 +10025,7 @@
       </c>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="29" t="s">
         <v>219</v>
       </c>
@@ -10029,7 +10033,7 @@
         <v>432</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
@@ -10046,7 +10050,7 @@
       </c>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="29" t="s">
         <v>220</v>
       </c>
@@ -10054,7 +10058,7 @@
         <v>432</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -10071,7 +10075,7 @@
       </c>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="29" t="s">
         <v>221</v>
       </c>
@@ -10079,7 +10083,7 @@
         <v>433</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
@@ -10096,7 +10100,7 @@
       </c>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="29" t="s">
         <v>222</v>
       </c>
@@ -10104,7 +10108,7 @@
         <v>434</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D203" s="29"/>
       <c r="E203" s="29" t="s">
@@ -10121,7 +10125,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A204" s="29" t="s">
         <v>223</v>
       </c>
@@ -10129,7 +10133,7 @@
         <v>434</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
@@ -10146,7 +10150,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="29" t="s">
         <v>224</v>
       </c>
@@ -10154,7 +10158,7 @@
         <v>434</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D205" s="29"/>
       <c r="E205" s="29" t="s">
@@ -10171,7 +10175,7 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="29" t="s">
         <v>225</v>
       </c>
@@ -10179,7 +10183,7 @@
         <v>434</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D206" s="29"/>
       <c r="E206" s="29" t="s">
@@ -10196,7 +10200,7 @@
       </c>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="29" t="s">
         <v>226</v>
       </c>
@@ -10204,7 +10208,7 @@
         <v>435</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
@@ -10221,7 +10225,7 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A208" s="29" t="s">
         <v>227</v>
       </c>
@@ -10229,7 +10233,7 @@
         <v>435</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -10246,7 +10250,7 @@
       </c>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="29" t="s">
         <v>228</v>
       </c>
@@ -10254,7 +10258,7 @@
         <v>435</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D209" s="29"/>
       <c r="E209" s="29" t="s">
@@ -10271,7 +10275,7 @@
       </c>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="29" t="s">
         <v>229</v>
       </c>
@@ -10279,7 +10283,7 @@
         <v>435</v>
       </c>
       <c r="C210" s="31" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D210" s="29"/>
       <c r="E210" s="29" t="s">
@@ -10296,7 +10300,7 @@
       </c>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="29" t="s">
         <v>230</v>
       </c>
@@ -10304,7 +10308,7 @@
         <v>435</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
@@ -10321,7 +10325,7 @@
       </c>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="29" t="s">
         <v>231</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>436</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
@@ -10346,7 +10350,7 @@
       </c>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A213" s="29" t="s">
         <v>232</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>436</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="29" t="s">
@@ -10371,7 +10375,7 @@
       </c>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A214" s="29" t="s">
         <v>233</v>
       </c>
@@ -10379,7 +10383,7 @@
         <v>436</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
@@ -10396,7 +10400,7 @@
       </c>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="29" t="s">
         <v>234</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>437</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D215" s="29"/>
       <c r="E215" s="29" t="s">
@@ -10421,7 +10425,7 @@
       </c>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="29" t="s">
         <v>235</v>
       </c>
@@ -10429,7 +10433,7 @@
         <v>438</v>
       </c>
       <c r="C216" s="31" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D216" s="29"/>
       <c r="E216" s="29" t="s">
@@ -10446,7 +10450,7 @@
       </c>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="29" t="s">
         <v>236</v>
       </c>
@@ -10454,7 +10458,7 @@
         <v>438</v>
       </c>
       <c r="C217" s="31" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="29" t="s">
@@ -10471,7 +10475,7 @@
       </c>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="29" t="s">
         <v>237</v>
       </c>
@@ -10479,7 +10483,7 @@
         <v>438</v>
       </c>
       <c r="C218" s="31" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="29" t="s">
@@ -10496,7 +10500,7 @@
       </c>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="29" t="s">
         <v>238</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>439</v>
       </c>
       <c r="C219" s="31" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="29" t="s">
@@ -10521,7 +10525,7 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="29" t="s">
         <v>239</v>
       </c>
@@ -10529,7 +10533,7 @@
         <v>439</v>
       </c>
       <c r="C220" s="31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="29" t="s">
@@ -10546,7 +10550,7 @@
       </c>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="29" t="s">
         <v>240</v>
       </c>
@@ -10554,7 +10558,7 @@
         <v>440</v>
       </c>
       <c r="C221" s="31" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D221" s="29"/>
       <c r="E221" s="29" t="s">
@@ -10571,7 +10575,7 @@
       </c>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="29" t="s">
         <v>241</v>
       </c>
@@ -10579,7 +10583,7 @@
         <v>441</v>
       </c>
       <c r="C222" s="31" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D222" s="29"/>
       <c r="E222" s="29" t="s">
@@ -10596,7 +10600,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A223" s="29" t="s">
         <v>242</v>
       </c>
@@ -10604,7 +10608,7 @@
         <v>441</v>
       </c>
       <c r="C223" s="31" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D223" s="29"/>
       <c r="E223" s="29" t="s">
@@ -10621,7 +10625,7 @@
       </c>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="29" t="s">
         <v>243</v>
       </c>
@@ -10629,7 +10633,7 @@
         <v>441</v>
       </c>
       <c r="C224" s="31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="29" t="s">
@@ -10646,7 +10650,7 @@
       </c>
       <c r="I224" s="31"/>
     </row>
-    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="29" t="s">
         <v>244</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>442</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="29" t="s">
@@ -10671,7 +10675,7 @@
       </c>
       <c r="I225" s="31"/>
     </row>
-    <row r="226" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A226" s="29" t="s">
         <v>245</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>442</v>
       </c>
       <c r="C226" s="31" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D226" s="29"/>
       <c r="E226" s="29" t="s">
@@ -10696,7 +10700,7 @@
       </c>
       <c r="I226" s="31"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="29" t="s">
         <v>246</v>
       </c>
@@ -10704,7 +10708,7 @@
         <v>442</v>
       </c>
       <c r="C227" s="31" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D227" s="29"/>
       <c r="E227" s="29" t="s">
@@ -10721,7 +10725,7 @@
       </c>
       <c r="I227" s="31"/>
     </row>
-    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="29" t="s">
         <v>247</v>
       </c>
@@ -10729,7 +10733,7 @@
         <v>442</v>
       </c>
       <c r="C228" s="31" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="29" t="s">
@@ -10746,7 +10750,7 @@
       </c>
       <c r="I228" s="31"/>
     </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="29" t="s">
         <v>248</v>
       </c>
@@ -10754,7 +10758,7 @@
         <v>442</v>
       </c>
       <c r="C229" s="31" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D229" s="29"/>
       <c r="E229" s="29" t="s">
@@ -10771,7 +10775,7 @@
       </c>
       <c r="I229" s="31"/>
     </row>
-    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="29" t="s">
         <v>249</v>
       </c>
@@ -10779,7 +10783,7 @@
         <v>443</v>
       </c>
       <c r="C230" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D230" s="29"/>
       <c r="E230" s="29" t="s">
@@ -10796,7 +10800,7 @@
       </c>
       <c r="I230" s="31"/>
     </row>
-    <row r="231" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A231" s="29" t="s">
         <v>250</v>
       </c>
@@ -10804,7 +10808,7 @@
         <v>443</v>
       </c>
       <c r="C231" s="31" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D231" s="29"/>
       <c r="E231" s="29" t="s">
@@ -10821,7 +10825,7 @@
       </c>
       <c r="I231" s="31"/>
     </row>
-    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A232" s="29" t="s">
         <v>251</v>
       </c>
@@ -10829,7 +10833,7 @@
         <v>443</v>
       </c>
       <c r="C232" s="31" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D232" s="29"/>
       <c r="E232" s="29" t="s">
@@ -10846,7 +10850,7 @@
       </c>
       <c r="I232" s="31"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="29" t="s">
         <v>252</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>444</v>
       </c>
       <c r="C233" s="31" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D233" s="29"/>
       <c r="E233" s="29" t="s">
@@ -10871,7 +10875,7 @@
       </c>
       <c r="I233" s="31"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="29" t="s">
         <v>253</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>445</v>
       </c>
       <c r="C234" s="31" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D234" s="29"/>
       <c r="E234" s="29" t="s">
@@ -10896,7 +10900,7 @@
       </c>
       <c r="I234" s="31"/>
     </row>
-    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A235" s="29" t="s">
         <v>254</v>
       </c>
@@ -10904,7 +10908,7 @@
         <v>445</v>
       </c>
       <c r="C235" s="31" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D235" s="29"/>
       <c r="E235" s="29" t="s">
@@ -10921,7 +10925,7 @@
       </c>
       <c r="I235" s="31"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="29" t="s">
         <v>255</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>445</v>
       </c>
       <c r="C236" s="31" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D236" s="29"/>
       <c r="E236" s="29" t="s">
@@ -10946,7 +10950,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="29" t="s">
         <v>256</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>446</v>
       </c>
       <c r="C237" s="31" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D237" s="29"/>
       <c r="E237" s="29" t="s">
@@ -10971,7 +10975,7 @@
       </c>
       <c r="I237" s="31"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="29" t="s">
         <v>257</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>446</v>
       </c>
       <c r="C238" s="31" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D238" s="29"/>
       <c r="E238" s="29" t="s">
@@ -10996,7 +11000,7 @@
       </c>
       <c r="I238" s="31"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="29" t="s">
         <v>258</v>
       </c>
@@ -11004,7 +11008,7 @@
         <v>447</v>
       </c>
       <c r="C239" s="31" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
@@ -11021,7 +11025,7 @@
       </c>
       <c r="I239" s="31"/>
     </row>
-    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="29" t="s">
         <v>259</v>
       </c>
@@ -11029,7 +11033,7 @@
         <v>448</v>
       </c>
       <c r="C240" s="31" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
@@ -11046,7 +11050,7 @@
       </c>
       <c r="I240" s="31"/>
     </row>
-    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A241" s="29" t="s">
         <v>260</v>
       </c>
@@ -11054,7 +11058,7 @@
         <v>448</v>
       </c>
       <c r="C241" s="31" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D241" s="29"/>
       <c r="E241" s="29" t="s">
@@ -11071,7 +11075,7 @@
       </c>
       <c r="I241" s="31"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="29" t="s">
         <v>261</v>
       </c>
@@ -11079,7 +11083,7 @@
         <v>448</v>
       </c>
       <c r="C242" s="31" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D242" s="29"/>
       <c r="E242" s="29" t="s">
@@ -11096,7 +11100,7 @@
       </c>
       <c r="I242" s="31"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="29" t="s">
         <v>262</v>
       </c>
@@ -11104,7 +11108,7 @@
         <v>448</v>
       </c>
       <c r="C243" s="31" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -11121,7 +11125,7 @@
       </c>
       <c r="I243" s="31"/>
     </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="29" t="s">
         <v>263</v>
       </c>
@@ -11129,7 +11133,7 @@
         <v>449</v>
       </c>
       <c r="C244" s="31" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
@@ -11146,7 +11150,7 @@
       </c>
       <c r="I244" s="31"/>
     </row>
-    <row r="245" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A245" s="29" t="s">
         <v>264</v>
       </c>
@@ -11154,7 +11158,7 @@
         <v>449</v>
       </c>
       <c r="C245" s="31" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
@@ -11171,7 +11175,7 @@
       </c>
       <c r="I245" s="31"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="29" t="s">
         <v>265</v>
       </c>
@@ -11179,7 +11183,7 @@
         <v>449</v>
       </c>
       <c r="C246" s="31" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D246" s="29"/>
       <c r="E246" s="29" t="s">
@@ -11196,7 +11200,7 @@
       </c>
       <c r="I246" s="31"/>
     </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A247" s="29" t="s">
         <v>266</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>449</v>
       </c>
       <c r="C247" s="31" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D247" s="29"/>
       <c r="E247" s="29" t="s">
@@ -11221,7 +11225,7 @@
       </c>
       <c r="I247" s="31"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="29" t="s">
         <v>267</v>
       </c>
@@ -11229,7 +11233,7 @@
         <v>449</v>
       </c>
       <c r="C248" s="31" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D248" s="29"/>
       <c r="E248" s="29" t="s">
@@ -11246,7 +11250,7 @@
       </c>
       <c r="I248" s="31"/>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="29" t="s">
         <v>268</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>450</v>
       </c>
       <c r="C249" s="31" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D249" s="29"/>
       <c r="E249" s="29" t="s">
@@ -11271,7 +11275,7 @@
       </c>
       <c r="I249" s="31"/>
     </row>
-    <row r="250" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A250" s="29" t="s">
         <v>269</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>450</v>
       </c>
       <c r="C250" s="31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="29" t="s">
@@ -11296,7 +11300,7 @@
       </c>
       <c r="I250" s="31"/>
     </row>
-    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A251" s="29" t="s">
         <v>270</v>
       </c>
@@ -11304,7 +11308,7 @@
         <v>450</v>
       </c>
       <c r="C251" s="31" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="29" t="s">
@@ -11321,7 +11325,7 @@
       </c>
       <c r="I251" s="31"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="29" t="s">
         <v>271</v>
       </c>
@@ -11329,7 +11333,7 @@
         <v>451</v>
       </c>
       <c r="C252" s="31" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D252" s="29"/>
       <c r="E252" s="29" t="s">
@@ -11346,7 +11350,7 @@
       </c>
       <c r="I252" s="31"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="29" t="s">
         <v>272</v>
       </c>
@@ -11354,7 +11358,7 @@
         <v>452</v>
       </c>
       <c r="C253" s="31" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D253" s="29"/>
       <c r="E253" s="29" t="s">
@@ -11371,7 +11375,7 @@
       </c>
       <c r="I253" s="31"/>
     </row>
-    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="29" t="s">
         <v>273</v>
       </c>
@@ -11379,7 +11383,7 @@
         <v>452</v>
       </c>
       <c r="C254" s="31" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D254" s="29"/>
       <c r="E254" s="29" t="s">
@@ -11396,7 +11400,7 @@
       </c>
       <c r="I254" s="31"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="29" t="s">
         <v>274</v>
       </c>
@@ -11404,7 +11408,7 @@
         <v>452</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D255" s="29"/>
       <c r="E255" s="29" t="s">
@@ -11421,7 +11425,7 @@
       </c>
       <c r="I255" s="31"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="29" t="s">
         <v>275</v>
       </c>
@@ -11429,7 +11433,7 @@
         <v>453</v>
       </c>
       <c r="C256" s="31" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="29" t="s">
@@ -11446,7 +11450,7 @@
       </c>
       <c r="I256" s="31"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="29" t="s">
         <v>276</v>
       </c>
@@ -11454,7 +11458,7 @@
         <v>453</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="29" t="s">
@@ -11471,7 +11475,7 @@
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="29" t="s">
         <v>277</v>
       </c>
@@ -11479,7 +11483,7 @@
         <v>454</v>
       </c>
       <c r="C258" s="31" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D258" s="29"/>
       <c r="E258" s="29" t="s">
@@ -11496,7 +11500,7 @@
       </c>
       <c r="I258" s="31"/>
     </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="29" t="s">
         <v>278</v>
       </c>
@@ -11504,7 +11508,7 @@
         <v>455</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D259" s="29"/>
       <c r="E259" s="29" t="s">
@@ -11521,7 +11525,7 @@
       </c>
       <c r="I259" s="31"/>
     </row>
-    <row r="260" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A260" s="29" t="s">
         <v>279</v>
       </c>
@@ -11529,7 +11533,7 @@
         <v>455</v>
       </c>
       <c r="C260" s="31" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D260" s="29"/>
       <c r="E260" s="29" t="s">
@@ -11546,7 +11550,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="29" t="s">
         <v>280</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>455</v>
       </c>
       <c r="C261" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D261" s="29"/>
       <c r="E261" s="29" t="s">
@@ -11571,7 +11575,7 @@
       </c>
       <c r="I261" s="31"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="29" t="s">
         <v>281</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>455</v>
       </c>
       <c r="C262" s="31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D262" s="29"/>
       <c r="E262" s="29" t="s">
@@ -11596,7 +11600,7 @@
       </c>
       <c r="I262" s="31"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="29" t="s">
         <v>282</v>
       </c>
@@ -11604,7 +11608,7 @@
         <v>455</v>
       </c>
       <c r="C263" s="31" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D263" s="29"/>
       <c r="E263" s="29" t="s">
@@ -11621,7 +11625,7 @@
       </c>
       <c r="I263" s="31"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="29" t="s">
         <v>283</v>
       </c>
@@ -11629,7 +11633,7 @@
         <v>455</v>
       </c>
       <c r="C264" s="31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="29" t="s">
@@ -11646,7 +11650,7 @@
       </c>
       <c r="I264" s="31"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="29" t="s">
         <v>284</v>
       </c>
@@ -11654,7 +11658,7 @@
         <v>455</v>
       </c>
       <c r="C265" s="31" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D265" s="29"/>
       <c r="E265" s="29" t="s">
@@ -11671,7 +11675,7 @@
       </c>
       <c r="I265" s="31"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="29" t="s">
         <v>285</v>
       </c>
@@ -11679,7 +11683,7 @@
         <v>455</v>
       </c>
       <c r="C266" s="31" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D266" s="29"/>
       <c r="E266" s="29" t="s">
@@ -11696,7 +11700,7 @@
       </c>
       <c r="I266" s="31"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="29" t="s">
         <v>286</v>
       </c>
@@ -11704,7 +11708,7 @@
         <v>455</v>
       </c>
       <c r="C267" s="31" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D267" s="29"/>
       <c r="E267" s="29" t="s">
@@ -11721,7 +11725,7 @@
       </c>
       <c r="I267" s="31"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="29" t="s">
         <v>287</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>455</v>
       </c>
       <c r="C268" s="31" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D268" s="29"/>
       <c r="E268" s="29" t="s">
@@ -11746,7 +11750,7 @@
       </c>
       <c r="I268" s="31"/>
     </row>
-    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="29" t="s">
         <v>288</v>
       </c>
@@ -11754,7 +11758,7 @@
         <v>456</v>
       </c>
       <c r="C269" s="31" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="29" t="s">
@@ -11771,7 +11775,7 @@
       </c>
       <c r="I269" s="31"/>
     </row>
-    <row r="270" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A270" s="29" t="s">
         <v>289</v>
       </c>
@@ -11779,7 +11783,7 @@
         <v>456</v>
       </c>
       <c r="C270" s="31" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D270" s="29"/>
       <c r="E270" s="29" t="s">
@@ -11796,7 +11800,7 @@
       </c>
       <c r="I270" s="31"/>
     </row>
-    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="29" t="s">
         <v>290</v>
       </c>
@@ -11804,7 +11808,7 @@
         <v>456</v>
       </c>
       <c r="C271" s="31" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D271" s="29"/>
       <c r="E271" s="29" t="s">
@@ -11821,7 +11825,7 @@
       </c>
       <c r="I271" s="31"/>
     </row>
-    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="29" t="s">
         <v>291</v>
       </c>
@@ -11829,7 +11833,7 @@
         <v>456</v>
       </c>
       <c r="C272" s="31" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D272" s="29"/>
       <c r="E272" s="29" t="s">
@@ -11846,7 +11850,7 @@
       </c>
       <c r="I272" s="31"/>
     </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="29" t="s">
         <v>292</v>
       </c>
@@ -11854,7 +11858,7 @@
         <v>457</v>
       </c>
       <c r="C273" s="31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D273" s="29"/>
       <c r="E273" s="29" t="s">
@@ -11871,7 +11875,7 @@
       </c>
       <c r="I273" s="31"/>
     </row>
-    <row r="274" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A274" s="29" t="s">
         <v>293</v>
       </c>
@@ -11879,7 +11883,7 @@
         <v>457</v>
       </c>
       <c r="C274" s="31" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="29" t="s">
@@ -11896,7 +11900,7 @@
       </c>
       <c r="I274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A275" s="29" t="s">
         <v>294</v>
       </c>
@@ -11904,7 +11908,7 @@
         <v>457</v>
       </c>
       <c r="C275" s="31" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="29" t="s">
@@ -11921,7 +11925,7 @@
       </c>
       <c r="I275" s="31"/>
     </row>
-    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A276" s="29" t="s">
         <v>295</v>
       </c>
@@ -11929,7 +11933,7 @@
         <v>457</v>
       </c>
       <c r="C276" s="31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D276" s="29"/>
       <c r="E276" s="29" t="s">
@@ -11945,10 +11949,10 @@
         <v>17</v>
       </c>
       <c r="I276" s="31" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A277" s="29" t="s">
         <v>296</v>
       </c>
@@ -11956,10 +11960,10 @@
         <v>457</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D277" s="29" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E277" s="29" t="s">
         <v>19</v>
@@ -11975,7 +11979,7 @@
       </c>
       <c r="I277" s="31"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="29" t="s">
         <v>297</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>458</v>
       </c>
       <c r="C278" s="31" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
@@ -12000,7 +12004,7 @@
       </c>
       <c r="I278" s="31"/>
     </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A279" s="29" t="s">
         <v>298</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>459</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -12025,7 +12029,7 @@
       </c>
       <c r="I279" s="31"/>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="29" t="s">
         <v>299</v>
       </c>
@@ -12033,7 +12037,7 @@
         <v>459</v>
       </c>
       <c r="C280" s="31" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -12050,7 +12054,7 @@
       </c>
       <c r="I280" s="31"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="29" t="s">
         <v>300</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>459</v>
       </c>
       <c r="C281" s="31" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D281" s="29"/>
       <c r="E281" s="29" t="s">
@@ -12075,7 +12079,7 @@
       </c>
       <c r="I281" s="31"/>
     </row>
-    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="29" t="s">
         <v>301</v>
       </c>
@@ -12083,7 +12087,7 @@
         <v>460</v>
       </c>
       <c r="C282" s="31" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D282" s="29"/>
       <c r="E282" s="29" t="s">
@@ -12100,7 +12104,7 @@
       </c>
       <c r="I282" s="31"/>
     </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="29" t="s">
         <v>302</v>
       </c>
@@ -12108,7 +12112,7 @@
         <v>460</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -12125,7 +12129,7 @@
       </c>
       <c r="I283" s="31"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="29" t="s">
         <v>303</v>
       </c>
@@ -12133,7 +12137,7 @@
         <v>461</v>
       </c>
       <c r="C284" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
@@ -12150,7 +12154,7 @@
       </c>
       <c r="I284" s="31"/>
     </row>
-    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="29" t="s">
         <v>304</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>462</v>
       </c>
       <c r="C285" s="31" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D285" s="29"/>
       <c r="E285" s="29" t="s">
@@ -12175,7 +12179,7 @@
       </c>
       <c r="I285" s="31"/>
     </row>
-    <row r="286" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A286" s="29" t="s">
         <v>305</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>462</v>
       </c>
       <c r="C286" s="31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -12200,7 +12204,7 @@
       </c>
       <c r="I286" s="31"/>
     </row>
-    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A287" s="29" t="s">
         <v>306</v>
       </c>
@@ -12208,7 +12212,7 @@
         <v>462</v>
       </c>
       <c r="C287" s="31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
@@ -12225,7 +12229,7 @@
       </c>
       <c r="I287" s="31"/>
     </row>
-    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="29" t="s">
         <v>307</v>
       </c>
@@ -12233,7 +12237,7 @@
         <v>463</v>
       </c>
       <c r="C288" s="31" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
@@ -12250,7 +12254,7 @@
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A289" s="29" t="s">
         <v>308</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>463</v>
       </c>
       <c r="C289" s="31" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D289" s="29"/>
       <c r="E289" s="29" t="s">
@@ -12275,7 +12279,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="29" t="s">
         <v>309</v>
       </c>
@@ -12283,7 +12287,7 @@
         <v>463</v>
       </c>
       <c r="C290" s="31" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
@@ -12300,7 +12304,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A291" s="29" t="s">
         <v>310</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>463</v>
       </c>
       <c r="C291" s="31" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D291" s="29"/>
       <c r="E291" s="29" t="s">
@@ -12325,7 +12329,7 @@
       </c>
       <c r="I291" s="31"/>
     </row>
-    <row r="292" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="29" t="s">
         <v>311</v>
       </c>
@@ -12333,7 +12337,7 @@
         <v>464</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D292" s="29"/>
       <c r="E292" s="29" t="s">
@@ -12349,10 +12353,10 @@
         <v>17</v>
       </c>
       <c r="I292" s="31" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A293" s="29" t="s">
         <v>312</v>
       </c>
@@ -12360,7 +12364,7 @@
         <v>464</v>
       </c>
       <c r="C293" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D293" s="29"/>
       <c r="E293" s="29" t="s">
@@ -12377,7 +12381,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A294" s="29" t="s">
         <v>313</v>
       </c>
@@ -12385,7 +12389,7 @@
         <v>464</v>
       </c>
       <c r="C294" s="31" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D294" s="29"/>
       <c r="E294" s="29" t="s">
@@ -12402,7 +12406,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="29" t="s">
         <v>314</v>
       </c>
@@ -12410,7 +12414,7 @@
         <v>465</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
@@ -12427,7 +12431,7 @@
       </c>
       <c r="I295" s="31"/>
     </row>
-    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="29" t="s">
         <v>315</v>
       </c>
@@ -12435,7 +12439,7 @@
         <v>466</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -12452,7 +12456,7 @@
       </c>
       <c r="I296" s="31"/>
     </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="29" t="s">
         <v>316</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>466</v>
       </c>
       <c r="C297" s="31" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D297" s="29"/>
       <c r="E297" s="29" t="s">
@@ -12477,7 +12481,7 @@
       </c>
       <c r="I297" s="31"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A298" s="29" t="s">
         <v>317</v>
       </c>
@@ -12485,7 +12489,7 @@
         <v>466</v>
       </c>
       <c r="C298" s="31" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D298" s="29"/>
       <c r="E298" s="29" t="s">
@@ -12502,7 +12506,7 @@
       </c>
       <c r="I298" s="31"/>
     </row>
-    <row r="299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A299" s="29" t="s">
         <v>318</v>
       </c>
@@ -12510,7 +12514,7 @@
         <v>467</v>
       </c>
       <c r="C299" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D299" s="29"/>
       <c r="E299" s="29" t="s">
@@ -12527,7 +12531,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="29" t="s">
         <v>319</v>
       </c>
@@ -12535,7 +12539,7 @@
         <v>467</v>
       </c>
       <c r="C300" s="31" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D300" s="29"/>
       <c r="E300" s="29" t="s">
@@ -12552,7 +12556,7 @@
       </c>
       <c r="I300" s="31"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A301" s="29" t="s">
         <v>320</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>468</v>
       </c>
       <c r="C301" s="31" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D301" s="29"/>
       <c r="E301" s="29" t="s">
@@ -12577,7 +12581,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A302" s="29" t="s">
         <v>321</v>
       </c>
@@ -12585,7 +12589,7 @@
         <v>469</v>
       </c>
       <c r="C302" s="31" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D302" s="29"/>
       <c r="E302" s="29" t="s">
@@ -12602,7 +12606,7 @@
       </c>
       <c r="I302" s="31"/>
     </row>
-    <row r="303" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A303" s="29" t="s">
         <v>322</v>
       </c>
@@ -12610,7 +12614,7 @@
         <v>469</v>
       </c>
       <c r="C303" s="31" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D303" s="29"/>
       <c r="E303" s="29" t="s">
@@ -12627,7 +12631,7 @@
       </c>
       <c r="I303" s="31"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="29" t="s">
         <v>323</v>
       </c>
@@ -12635,7 +12639,7 @@
         <v>469</v>
       </c>
       <c r="C304" s="31" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D304" s="29"/>
       <c r="E304" s="29" t="s">
@@ -12652,7 +12656,7 @@
       </c>
       <c r="I304" s="31"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="29" t="s">
         <v>324</v>
       </c>
@@ -12660,7 +12664,7 @@
         <v>469</v>
       </c>
       <c r="C305" s="31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D305" s="29"/>
       <c r="E305" s="29" t="s">
@@ -12677,7 +12681,7 @@
       </c>
       <c r="I305" s="31"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="29" t="s">
         <v>325</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>469</v>
       </c>
       <c r="C306" s="31" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D306" s="29"/>
       <c r="E306" s="29" t="s">
@@ -12702,7 +12706,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="29" t="s">
         <v>326</v>
       </c>
@@ -12710,7 +12714,7 @@
         <v>469</v>
       </c>
       <c r="C307" s="31" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D307" s="29"/>
       <c r="E307" s="29" t="s">
@@ -12727,7 +12731,7 @@
       </c>
       <c r="I307" s="31"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="29" t="s">
         <v>327</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>469</v>
       </c>
       <c r="C308" s="31" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D308" s="29"/>
       <c r="E308" s="29" t="s">
@@ -12752,7 +12756,7 @@
       </c>
       <c r="I308" s="31"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="29" t="s">
         <v>328</v>
       </c>
@@ -12760,7 +12764,7 @@
         <v>469</v>
       </c>
       <c r="C309" s="31" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D309" s="29"/>
       <c r="E309" s="29" t="s">
@@ -12777,7 +12781,7 @@
       </c>
       <c r="I309" s="31"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="29" t="s">
         <v>329</v>
       </c>
@@ -12785,7 +12789,7 @@
         <v>469</v>
       </c>
       <c r="C310" s="31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D310" s="29"/>
       <c r="E310" s="29" t="s">
@@ -12802,7 +12806,7 @@
       </c>
       <c r="I310" s="31"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="29" t="s">
         <v>330</v>
       </c>
@@ -12810,7 +12814,7 @@
         <v>469</v>
       </c>
       <c r="C311" s="31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D311" s="29"/>
       <c r="E311" s="29" t="s">
@@ -12827,7 +12831,7 @@
       </c>
       <c r="I311" s="31"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="29" t="s">
         <v>331</v>
       </c>
@@ -12835,7 +12839,7 @@
         <v>469</v>
       </c>
       <c r="C312" s="31" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D312" s="29"/>
       <c r="E312" s="29" t="s">
@@ -12852,7 +12856,7 @@
       </c>
       <c r="I312" s="31"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="29" t="s">
         <v>332</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>469</v>
       </c>
       <c r="C313" s="31" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D313" s="29"/>
       <c r="E313" s="29" t="s">
@@ -12877,7 +12881,7 @@
       </c>
       <c r="I313" s="31"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="29" t="s">
         <v>333</v>
       </c>
@@ -12885,7 +12889,7 @@
         <v>469</v>
       </c>
       <c r="C314" s="31" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D314" s="29"/>
       <c r="E314" s="29" t="s">
@@ -12902,7 +12906,7 @@
       </c>
       <c r="I314" s="31"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="29" t="s">
         <v>334</v>
       </c>
@@ -12910,7 +12914,7 @@
         <v>469</v>
       </c>
       <c r="C315" s="31" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D315" s="29"/>
       <c r="E315" s="29" t="s">
@@ -12927,7 +12931,7 @@
       </c>
       <c r="I315" s="31"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="29" t="s">
         <v>335</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>469</v>
       </c>
       <c r="C316" s="31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D316" s="29"/>
       <c r="E316" s="29" t="s">
@@ -12952,7 +12956,7 @@
       </c>
       <c r="I316" s="31"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="29" t="s">
         <v>336</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>469</v>
       </c>
       <c r="C317" s="31" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D317" s="29"/>
       <c r="E317" s="29" t="s">
@@ -12977,7 +12981,7 @@
       </c>
       <c r="I317" s="31"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A318" s="29" t="s">
         <v>337</v>
       </c>
@@ -12985,7 +12989,7 @@
         <v>469</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -13002,7 +13006,7 @@
       </c>
       <c r="I318" s="31"/>
     </row>
-    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A319" s="29" t="s">
         <v>338</v>
       </c>
@@ -13010,7 +13014,7 @@
         <v>469</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D319" s="29"/>
       <c r="E319" s="29" t="s">
@@ -13027,7 +13031,7 @@
       </c>
       <c r="I319" s="31"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="29" t="s">
         <v>339</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>470</v>
       </c>
       <c r="C320" s="31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D320" s="29"/>
       <c r="E320" s="29" t="s">
@@ -13052,7 +13056,7 @@
       </c>
       <c r="I320" s="31"/>
     </row>
-    <row r="321" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A321" s="29" t="s">
         <v>340</v>
       </c>
@@ -13060,7 +13064,7 @@
         <v>470</v>
       </c>
       <c r="C321" s="31" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D321" s="29"/>
       <c r="E321" s="29" t="s">
@@ -13077,7 +13081,7 @@
       </c>
       <c r="I321" s="31"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="29" t="s">
         <v>341</v>
       </c>
@@ -13085,7 +13089,7 @@
         <v>470</v>
       </c>
       <c r="C322" s="31" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
@@ -13102,7 +13106,7 @@
       </c>
       <c r="I322" s="31"/>
     </row>
-    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A323" s="29" t="s">
         <v>342</v>
       </c>
@@ -13110,7 +13114,7 @@
         <v>471</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D323" s="29"/>
       <c r="E323" s="29" t="s">
@@ -13127,7 +13131,7 @@
       </c>
       <c r="I323" s="31"/>
     </row>
-    <row r="324" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A324" s="29" t="s">
         <v>343</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>471</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D324" s="29"/>
       <c r="E324" s="29" t="s">
@@ -13152,7 +13156,7 @@
       </c>
       <c r="I324" s="31"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A325" s="29" t="s">
         <v>344</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>471</v>
       </c>
       <c r="C325" s="31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D325" s="29"/>
       <c r="E325" s="29" t="s">
@@ -13177,7 +13181,7 @@
       </c>
       <c r="I325" s="31"/>
     </row>
-    <row r="326" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A326" s="29" t="s">
         <v>345</v>
       </c>
@@ -13185,7 +13189,7 @@
         <v>472</v>
       </c>
       <c r="C326" s="31" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D326" s="29"/>
       <c r="E326" s="29" t="s">
@@ -13202,7 +13206,7 @@
       </c>
       <c r="I326" s="31"/>
     </row>
-    <row r="327" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A327" s="29" t="s">
         <v>346</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>472</v>
       </c>
       <c r="C327" s="31" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
@@ -13227,7 +13231,7 @@
       </c>
       <c r="I327" s="31"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A328" s="29" t="s">
         <v>347</v>
       </c>
@@ -13235,7 +13239,7 @@
         <v>472</v>
       </c>
       <c r="C328" s="31" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D328" s="29"/>
       <c r="E328" s="29" t="s">
@@ -13252,7 +13256,7 @@
       </c>
       <c r="I328" s="31"/>
     </row>
-    <row r="329" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A329" s="29" t="s">
         <v>348</v>
       </c>
@@ -13260,7 +13264,7 @@
         <v>473</v>
       </c>
       <c r="C329" s="31" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D329" s="29"/>
       <c r="E329" s="29" t="s">
@@ -13277,7 +13281,7 @@
       </c>
       <c r="I329" s="31"/>
     </row>
-    <row r="330" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A330" s="29" t="s">
         <v>349</v>
       </c>
@@ -13285,7 +13289,7 @@
         <v>473</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D330" s="29"/>
       <c r="E330" s="29" t="s">
@@ -13302,7 +13306,7 @@
       </c>
       <c r="I330" s="31"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A331" s="29" t="s">
         <v>350</v>
       </c>
@@ -13310,7 +13314,7 @@
         <v>473</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D331" s="29"/>
       <c r="E331" s="29" t="s">
@@ -13327,7 +13331,7 @@
       </c>
       <c r="I331" s="31"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A332" s="29" t="s">
         <v>351</v>
       </c>
@@ -13335,7 +13339,7 @@
         <v>474</v>
       </c>
       <c r="C332" s="31" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D332" s="29"/>
       <c r="E332" s="29" t="s">
@@ -13352,7 +13356,7 @@
       </c>
       <c r="I332" s="31"/>
     </row>
-    <row r="333" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A333" s="29" t="s">
         <v>352</v>
       </c>
@@ -13360,7 +13364,7 @@
         <v>474</v>
       </c>
       <c r="C333" s="31" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D333" s="29"/>
       <c r="E333" s="29" t="s">
@@ -13377,7 +13381,7 @@
       </c>
       <c r="I333" s="31"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A334" s="29" t="s">
         <v>353</v>
       </c>
@@ -13385,7 +13389,7 @@
         <v>474</v>
       </c>
       <c r="C334" s="31" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
@@ -13402,7 +13406,7 @@
       </c>
       <c r="I334" s="31"/>
     </row>
-    <row r="335" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A335" s="29" t="s">
         <v>354</v>
       </c>
@@ -13410,7 +13414,7 @@
         <v>475</v>
       </c>
       <c r="C335" s="31" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
@@ -13427,7 +13431,7 @@
       </c>
       <c r="I335" s="31"/>
     </row>
-    <row r="336" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="A336" s="29" t="s">
         <v>355</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>475</v>
       </c>
       <c r="C336" s="31" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -13452,7 +13456,7 @@
       </c>
       <c r="I336" s="31"/>
     </row>
-    <row r="337" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="29" t="s">
         <v>356</v>
       </c>
@@ -13460,7 +13464,7 @@
         <v>475</v>
       </c>
       <c r="C337" s="31" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
@@ -13477,7 +13481,7 @@
       </c>
       <c r="I337" s="31"/>
     </row>
-    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="29" t="s">
         <v>357</v>
       </c>
@@ -13485,7 +13489,7 @@
         <v>476</v>
       </c>
       <c r="C338" s="31" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D338" s="29"/>
       <c r="E338" s="29" t="s">
@@ -13502,7 +13506,7 @@
       </c>
       <c r="I338" s="31"/>
     </row>
-    <row r="339" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A339" s="29" t="s">
         <v>358</v>
       </c>
@@ -13510,7 +13514,7 @@
         <v>476</v>
       </c>
       <c r="C339" s="31" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D339" s="29"/>
       <c r="E339" s="29" t="s">
@@ -13527,7 +13531,7 @@
       </c>
       <c r="I339" s="31"/>
     </row>
-    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A340" s="29" t="s">
         <v>359</v>
       </c>
@@ -13535,7 +13539,7 @@
         <v>476</v>
       </c>
       <c r="C340" s="31" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D340" s="29"/>
       <c r="E340" s="29" t="s">
@@ -13552,7 +13556,7 @@
       </c>
       <c r="I340" s="31"/>
     </row>
-    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A341" s="29" t="s">
         <v>360</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>476</v>
       </c>
       <c r="C341" s="31" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D341" s="29"/>
       <c r="E341" s="29" t="s">
@@ -13577,7 +13581,7 @@
       </c>
       <c r="I341" s="31"/>
     </row>
-    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A342" s="29" t="s">
         <v>361</v>
       </c>
@@ -13585,7 +13589,7 @@
         <v>477</v>
       </c>
       <c r="C342" s="31" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="29" t="s">
@@ -13602,7 +13606,7 @@
       </c>
       <c r="I342" s="31"/>
     </row>
-    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A343" s="29" t="s">
         <v>362</v>
       </c>
@@ -13610,7 +13614,7 @@
         <v>477</v>
       </c>
       <c r="C343" s="31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D343" s="29"/>
       <c r="E343" s="29" t="s">
@@ -13627,7 +13631,7 @@
       </c>
       <c r="I343" s="31"/>
     </row>
-    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A344" s="29" t="s">
         <v>363</v>
       </c>
@@ -13635,10 +13639,10 @@
         <v>477</v>
       </c>
       <c r="C344" s="31" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D344" s="29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E344" s="29" t="s">
         <v>22</v>
@@ -13653,21 +13657,21 @@
         <v>21</v>
       </c>
       <c r="I344" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A345" s="22" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B345" s="30" t="s">
         <v>477</v>
       </c>
       <c r="C345" s="31" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D345" s="29" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E345" s="29" t="s">
         <v>22</v>
@@ -13682,10 +13686,10 @@
         <v>21</v>
       </c>
       <c r="I345" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A346" s="29" t="s">
         <v>364</v>
       </c>
@@ -13693,10 +13697,10 @@
         <v>477</v>
       </c>
       <c r="C346" s="31" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E346" s="29" t="s">
         <v>22</v>
@@ -13711,21 +13715,21 @@
         <v>20</v>
       </c>
       <c r="I346" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A347" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B347" s="30" t="s">
         <v>477</v>
       </c>
       <c r="C347" s="31" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D347" s="22" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E347" s="29" t="s">
         <v>22</v>
@@ -13740,18 +13744,18 @@
         <v>20</v>
       </c>
       <c r="I347" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A348" s="22" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B348" s="30" t="s">
         <v>477</v>
       </c>
       <c r="C348" s="31" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D348" s="29"/>
       <c r="E348" s="29" t="s">
@@ -13767,10 +13771,10 @@
         <v>20</v>
       </c>
       <c r="I348" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A349" s="29" t="s">
         <v>365</v>
       </c>
@@ -13778,10 +13782,10 @@
         <v>477</v>
       </c>
       <c r="C349" s="31" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D349" s="29" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E349" s="29" t="s">
         <v>22</v>
@@ -13797,7 +13801,7 @@
       </c>
       <c r="I349" s="31"/>
     </row>
-    <row r="350" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A350" s="29" t="s">
         <v>366</v>
       </c>
@@ -13805,10 +13809,10 @@
         <v>477</v>
       </c>
       <c r="C350" s="31" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D350" s="29" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E350" s="29" t="s">
         <v>22</v>
@@ -13823,10 +13827,10 @@
         <v>20</v>
       </c>
       <c r="I350" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A351" s="29" t="s">
         <v>367</v>
       </c>
@@ -13834,10 +13838,10 @@
         <v>477</v>
       </c>
       <c r="C351" s="31" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D351" s="29" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E351" s="29" t="s">
         <v>22</v>
@@ -13852,10 +13856,10 @@
         <v>20</v>
       </c>
       <c r="I351" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A352" s="29" t="s">
         <v>368</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>478</v>
       </c>
       <c r="C352" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D352" s="29"/>
       <c r="E352" s="29" t="s">
@@ -13880,7 +13884,7 @@
       </c>
       <c r="I352" s="31"/>
     </row>
-    <row r="353" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A353" s="29" t="s">
         <v>369</v>
       </c>
@@ -13888,7 +13892,7 @@
         <v>479</v>
       </c>
       <c r="C353" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D353" s="29"/>
       <c r="E353" s="29" t="s">
@@ -13905,7 +13909,7 @@
       </c>
       <c r="I353" s="31"/>
     </row>
-    <row r="354" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A354" s="29" t="s">
         <v>370</v>
       </c>
@@ -13913,7 +13917,7 @@
         <v>480</v>
       </c>
       <c r="C354" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D354" s="29"/>
       <c r="E354" s="29" t="s">
@@ -13930,7 +13934,7 @@
       </c>
       <c r="I354" s="31"/>
     </row>
-    <row r="355" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A355" s="29" t="s">
         <v>371</v>
       </c>
@@ -13938,7 +13942,7 @@
         <v>481</v>
       </c>
       <c r="C355" s="31" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D355" s="29"/>
       <c r="E355" s="29" t="s">
@@ -13955,7 +13959,7 @@
       </c>
       <c r="I355" s="31"/>
     </row>
-    <row r="356" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A356" s="29" t="s">
         <v>372</v>
       </c>
@@ -13963,7 +13967,7 @@
         <v>482</v>
       </c>
       <c r="C356" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D356" s="29"/>
       <c r="E356" s="29" t="s">
@@ -13980,7 +13984,7 @@
       </c>
       <c r="I356" s="31"/>
     </row>
-    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="29" t="s">
         <v>373</v>
       </c>
@@ -13988,7 +13992,7 @@
         <v>482</v>
       </c>
       <c r="C357" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D357" s="29"/>
       <c r="E357" s="29" t="s">
@@ -14005,7 +14009,7 @@
       </c>
       <c r="I357" s="31"/>
     </row>
-    <row r="358" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="319" x14ac:dyDescent="0.35">
       <c r="A358" s="29" t="s">
         <v>374</v>
       </c>
@@ -14013,7 +14017,7 @@
         <v>483</v>
       </c>
       <c r="C358" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D358" s="29"/>
       <c r="E358" s="29" t="s">
@@ -14030,7 +14034,7 @@
       </c>
       <c r="I358" s="31"/>
     </row>
-    <row r="359" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A359" s="29" t="s">
         <v>375</v>
       </c>
@@ -14038,7 +14042,7 @@
         <v>484</v>
       </c>
       <c r="C359" s="31" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D359" s="29"/>
       <c r="E359" s="29" t="s">
@@ -14055,7 +14059,7 @@
       </c>
       <c r="I359" s="31"/>
     </row>
-    <row r="360" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A360" s="29" t="s">
         <v>376</v>
       </c>
@@ -14063,7 +14067,7 @@
         <v>485</v>
       </c>
       <c r="C360" s="31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D360" s="29"/>
       <c r="E360" s="29" t="s">
@@ -14080,7 +14084,7 @@
       </c>
       <c r="I360" s="31"/>
     </row>
-    <row r="361" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A361" s="29" t="s">
         <v>377</v>
       </c>
@@ -14088,7 +14092,7 @@
         <v>486</v>
       </c>
       <c r="C361" s="31" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D361" s="29"/>
       <c r="E361" s="29" t="s">
@@ -14104,10 +14108,10 @@
         <v>17</v>
       </c>
       <c r="I361" s="31" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A362" s="29" t="s">
         <v>378</v>
       </c>
@@ -14115,7 +14119,7 @@
         <v>486</v>
       </c>
       <c r="C362" s="31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D362" s="29"/>
       <c r="E362" s="29" t="s">
@@ -14132,7 +14136,7 @@
       </c>
       <c r="I362" s="31"/>
     </row>
-    <row r="363" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A363" s="29" t="s">
         <v>379</v>
       </c>
@@ -14140,7 +14144,7 @@
         <v>487</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D363" s="29"/>
       <c r="E363" s="29" t="s">
@@ -14157,7 +14161,7 @@
       </c>
       <c r="I363" s="31"/>
     </row>
-    <row r="364" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A364" s="29" t="s">
         <v>380</v>
       </c>
@@ -14165,7 +14169,7 @@
         <v>488</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D364" s="29"/>
       <c r="E364" s="29" t="s">
@@ -14182,7 +14186,7 @@
       </c>
       <c r="I364" s="31"/>
     </row>
-    <row r="365" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A365" s="29" t="s">
         <v>381</v>
       </c>
@@ -14190,7 +14194,7 @@
         <v>489</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D365" s="29"/>
       <c r="E365" s="29" t="s">
@@ -14207,7 +14211,7 @@
       </c>
       <c r="I365" s="31"/>
     </row>
-    <row r="366" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A366" s="29" t="s">
         <v>382</v>
       </c>
@@ -14215,7 +14219,7 @@
         <v>490</v>
       </c>
       <c r="C366" s="31" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D366" s="29"/>
       <c r="E366" s="29" t="s">
@@ -14232,7 +14236,7 @@
       </c>
       <c r="I366" s="31"/>
     </row>
-    <row r="367" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A367" s="29" t="s">
         <v>383</v>
       </c>
@@ -14240,7 +14244,7 @@
         <v>491</v>
       </c>
       <c r="C367" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D367" s="29"/>
       <c r="E367" s="29" t="s">
@@ -14257,7 +14261,7 @@
       </c>
       <c r="I367" s="31"/>
     </row>
-    <row r="368" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A368" s="29" t="s">
         <v>384</v>
       </c>
@@ -14265,7 +14269,7 @@
         <v>492</v>
       </c>
       <c r="C368" s="31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D368" s="29"/>
       <c r="E368" s="29" t="s">
@@ -14282,7 +14286,7 @@
       </c>
       <c r="I368" s="31"/>
     </row>
-    <row r="369" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A369" s="29" t="s">
         <v>385</v>
       </c>
@@ -14290,7 +14294,7 @@
         <v>493</v>
       </c>
       <c r="C369" s="31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D369" s="29"/>
       <c r="E369" s="29" t="s">
@@ -14307,7 +14311,7 @@
       </c>
       <c r="I369" s="31"/>
     </row>
-    <row r="370" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A370" s="29" t="s">
         <v>386</v>
       </c>
@@ -14315,7 +14319,7 @@
         <v>494</v>
       </c>
       <c r="C370" s="31" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D370" s="29"/>
       <c r="E370" s="29" t="s">
@@ -14332,7 +14336,7 @@
       </c>
       <c r="I370" s="31"/>
     </row>
-    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A371" s="29" t="s">
         <v>387</v>
       </c>
@@ -14340,7 +14344,7 @@
         <v>495</v>
       </c>
       <c r="C371" s="31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D371" s="29"/>
       <c r="E371" s="29" t="s">
@@ -14357,7 +14361,7 @@
       </c>
       <c r="I371" s="31"/>
     </row>
-    <row r="372" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A372" s="29" t="s">
         <v>388</v>
       </c>
@@ -14365,7 +14369,7 @@
         <v>496</v>
       </c>
       <c r="C372" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D372" s="29"/>
       <c r="E372" s="29" t="s">
@@ -14382,7 +14386,7 @@
       </c>
       <c r="I372" s="31"/>
     </row>
-    <row r="373" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A373" s="29" t="s">
         <v>389</v>
       </c>
@@ -14390,7 +14394,7 @@
         <v>497</v>
       </c>
       <c r="C373" s="31" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D373" s="29"/>
       <c r="E373" s="29" t="s">
@@ -14407,7 +14411,7 @@
       </c>
       <c r="I373" s="31"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" s="29" t="s">
         <v>390</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>498</v>
       </c>
       <c r="C374" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D374" s="29"/>
       <c r="E374" s="29" t="s">
@@ -14432,7 +14436,7 @@
       </c>
       <c r="I374" s="31"/>
     </row>
-    <row r="375" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A375" s="29" t="s">
         <v>391</v>
       </c>
@@ -14440,7 +14444,7 @@
         <v>499</v>
       </c>
       <c r="C375" s="31" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D375" s="29"/>
       <c r="E375" s="29" t="s">
@@ -14457,7 +14461,7 @@
       </c>
       <c r="I375" s="31"/>
     </row>
-    <row r="376" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A376" s="29" t="s">
         <v>392</v>
       </c>
@@ -14465,7 +14469,7 @@
         <v>500</v>
       </c>
       <c r="C376" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D376" s="29"/>
       <c r="E376" s="29" t="s">
@@ -14482,7 +14486,7 @@
       </c>
       <c r="I376" s="31"/>
     </row>
-    <row r="377" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A377" s="29" t="s">
         <v>393</v>
       </c>
@@ -14490,7 +14494,7 @@
         <v>501</v>
       </c>
       <c r="C377" s="31" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D377" s="29"/>
       <c r="E377" s="29" t="s">
@@ -14507,7 +14511,7 @@
       </c>
       <c r="I377" s="31"/>
     </row>
-    <row r="378" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A378" s="29" t="s">
         <v>394</v>
       </c>
@@ -14515,7 +14519,7 @@
         <v>502</v>
       </c>
       <c r="C378" s="31" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D378" s="29"/>
       <c r="E378" s="29" t="s">
@@ -14532,16 +14536,21 @@
       </c>
       <c r="I378" s="31"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="3"/>
       <c r="B379" s="10"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="3"/>
       <c r="B380" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14549,11 +14558,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A113:I113 A115:I378 A34:I111 I20:I111 A20:H378 I113:I378">
@@ -14587,20 +14591,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F378">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F378" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E378">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E378" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G378">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G378" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H378">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H378" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14620,12 +14624,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14678,15 +14679,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14707,15 +14717,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>